--- a/outputs/Financial_Model.xlsx
+++ b/outputs/Financial_Model.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="254">
   <si>
     <t>Revenue and COGS Build</t>
   </si>
@@ -55,49 +55,49 @@
     <t>Frequency Source</t>
   </si>
   <si>
-    <t>Scaffolding Rental Services</t>
+    <t>Custom Vehicle Up-fitting</t>
   </si>
   <si>
-    <t>Average project rental cost</t>
+    <t>Standard rate for full vehicle modification</t>
   </si>
   <si>
-    <t>Consistent demand for scaffolding services across various projects</t>
+    <t>Monthly volume as projected from backlog estimates</t>
   </si>
   <si>
-    <t>Custom Scaffold Design</t>
+    <t>Gold Division Prepackaged Systems</t>
   </si>
   <si>
-    <t>Design services priced based on complexity</t>
+    <t>Price for standardized power systems package</t>
   </si>
   <si>
-    <t>Custom jobs with multiple components</t>
+    <t>Regular orders, indicative of stable client base</t>
   </si>
   <si>
-    <t>Sales of Construction Materials</t>
+    <t>Generator Sales</t>
   </si>
   <si>
-    <t>Materials consistently in demand</t>
+    <t>Retail sales of Honda generators and pumps</t>
   </si>
   <si>
-    <t>Regular sales for ongoing constructions</t>
+    <t>Estimated based on past year performance</t>
   </si>
   <si>
-    <t>Safety Training Programs</t>
+    <t>Consulting and Advisory Services</t>
   </si>
   <si>
-    <t>Added value service for clients</t>
+    <t>Support services for OEM clients</t>
   </si>
   <si>
-    <t>Training sessions scheduled throughout the month</t>
+    <t>Consulting engagements expected monthly</t>
   </si>
   <si>
-    <t>Equipment Leasing</t>
+    <t>Miscellaneous Parts and Accessories</t>
   </si>
   <si>
-    <t>Short-term leasing for client projects</t>
+    <t>Add-on parts and upgrades</t>
   </si>
   <si>
-    <t>Steady interest from varied industrial sectors</t>
+    <t>High volume due to broad accessory range</t>
   </si>
   <si>
     <t>Total</t>
@@ -118,49 +118,49 @@
     <t>Cost Source</t>
   </si>
   <si>
-    <t>Material Costs</t>
+    <t>Steel for Vehicle Construction</t>
   </si>
   <si>
-    <t>Incurred consistently across projects</t>
+    <t>Used in most vehicle customizations</t>
   </si>
   <si>
-    <t>Materials are replenished monthly</t>
+    <t>Projected based on high demand periods</t>
   </si>
   <si>
-    <t>Outsourced Labor</t>
+    <t>Electrical Components</t>
   </si>
   <si>
-    <t>Specialty subcontractors for specific projects</t>
+    <t>Components for customizing vehicle electrical systems</t>
   </si>
   <si>
-    <t>Subcontractor engagement varies with project complexity</t>
+    <t>Based on OEM supply chain cycle</t>
   </si>
   <si>
-    <t>System Scaffolding Supplies</t>
+    <t>Generators and Inverters</t>
   </si>
   <si>
-    <t>Dependable supply driven by steady demand for construction</t>
+    <t>Power systems included in customization</t>
   </si>
   <si>
-    <t>Usage frequency depends on project scale</t>
+    <t>Regular procurement cycle for power systems</t>
   </si>
   <si>
-    <t>Transportation and Logistics</t>
+    <t>Interior Custom Fittings</t>
   </si>
   <si>
-    <t>Fleet operations supporting material movement</t>
+    <t>Interior fittings for customer specifications</t>
   </si>
   <si>
-    <t>Regular monthly shipment schedules</t>
+    <t>Demands spike during fleet upgrades</t>
   </si>
   <si>
-    <t>Safety and Compliance Checks</t>
+    <t>HVAC Systems</t>
   </si>
   <si>
-    <t>Ongoing compliance with training and inspections</t>
+    <t>Climate control systems included in up-fits</t>
   </si>
   <si>
-    <t>Frequent checks due to regulatory requirements</t>
+    <t>Seasonal increases expected</t>
   </si>
   <si>
     <t>Unit Employees</t>
@@ -259,43 +259,43 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Scaffold Installer</t>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>Role to be filled post-retirement of current CEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>Critical for maintaining and expanding client relationships</t>
+  </si>
+  <si>
+    <t>Electrician</t>
   </si>
   <si>
     <t>hourly</t>
   </si>
   <si>
-    <t>Large workforce due to industry standards</t>
+    <t>Essential for fulfilling vehicle modification orders</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Production Worker</t>
   </si>
   <si>
-    <t>Site Foreman</t>
+    <t>Perform critical task in vehicle assembly</t>
   </si>
   <si>
-    <t>Foreman to oversee different project sites</t>
+    <t>Office Administrator</t>
   </si>
   <si>
-    <t>Safety Officer</t>
-  </si>
-  <si>
-    <t>In charge of safety training and compliance</t>
-  </si>
-  <si>
-    <t>Administrative Assistant</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t>Supports company administration and coordination</t>
-  </si>
-  <si>
-    <t>Branch Manager</t>
-  </si>
-  <si>
-    <t>Branch manager for each operational location</t>
+    <t>Support role with administrative functions</t>
   </si>
   <si>
     <t>Sources</t>
@@ -325,40 +325,37 @@
     <t>Notes/Assumptions</t>
   </si>
   <si>
-    <t>Marketing and Advertising</t>
+    <t>Office Rent</t>
   </si>
   <si>
-    <t>Annually</t>
+    <t>Annual</t>
   </si>
   <si>
-    <t>Annual marketing efforts to increase in awareness in newer markets</t>
+    <t>Leases related property for operations</t>
   </si>
   <si>
-    <t>Utility Costs</t>
+    <t>Insurance</t>
   </si>
   <si>
-    <t>Monthly</t>
+    <t>Insurance essential for operational risk management</t>
   </si>
   <si>
-    <t>Estimated based on operation scale</t>
+    <t>IT Services</t>
   </si>
   <si>
-    <t>General Office Supply</t>
+    <t>Ongoing digital infrastructure maintenance</t>
   </si>
   <si>
-    <t>Ongoing operational need for office supplies</t>
+    <t>Utilities</t>
   </si>
   <si>
-    <t>Vehicle Maintenance</t>
+    <t>Yearly utility bills necessary for manufacturing facilities</t>
   </si>
   <si>
-    <t>Consistent spending required for maintenance of transportation fleet</t>
+    <t>Advertising</t>
   </si>
   <si>
-    <t>Professional Fees</t>
-  </si>
-  <si>
-    <t>Legal consulting and audit-related charges</t>
+    <t>Promotional activities to attract and retain clients</t>
   </si>
   <si>
     <t>Capital Expenditures</t>
@@ -370,34 +367,34 @@
     <t>Purchase Date</t>
   </si>
   <si>
-    <t>Scaffold Inventory Enhancement</t>
+    <t>Vehicle Customization Equipment</t>
   </si>
   <si>
-    <t>Expansion and refurbishment of scaffolding stock</t>
+    <t>Equipment required for up-fitting niche vehicles as described in Page 9</t>
   </si>
   <si>
-    <t>Office Equipment Modernization</t>
+    <t>Facility Maintenance</t>
   </si>
   <si>
-    <t>Upgrade office tech to improve efficiency</t>
+    <t>Maintaining and updating the facility leased, as indicated in Page 6</t>
   </si>
   <si>
-    <t>Facilities Expansion</t>
+    <t>IT Infrastructure</t>
   </si>
   <si>
-    <t>Expanding physical infrastructure to support business growth</t>
+    <t>Upgrading IT systems to improve inventory and order processing efficiency</t>
   </si>
   <si>
-    <t>New IT Systems</t>
+    <t>Employee Training Facilities</t>
   </si>
   <si>
-    <t>New software systems to enhance operational efficiency</t>
+    <t>Establishment of facilities for training staff as part of growth</t>
   </si>
   <si>
-    <t>Heavy Equipment Purchase</t>
+    <t>Machinery for Production Line</t>
   </si>
   <si>
-    <t>Ongoing need for specialty equipment for varied projects</t>
+    <t>Necessary for maintaining production as demand increases; Page 9 highlights the growth phase</t>
   </si>
   <si>
     <t>Depreciation Calculations</t>
@@ -514,37 +511,31 @@
     <t>Source Date</t>
   </si>
   <si>
-    <t>BrandSafway</t>
+    <t>Spartan Upfit Services</t>
   </si>
   <si>
-    <t>Market Intelligence</t>
+    <t>-</t>
   </si>
   <si>
-    <t>2023-12-01</t>
+    <t>No Source</t>
   </si>
   <si>
-    <t>Brock Group</t>
+    <t>2023-11-15</t>
   </si>
   <si>
-    <t>Industry Reports</t>
+    <t>ECO Vehicle Systems</t>
   </si>
   <si>
-    <t>PERI Group</t>
+    <t>Utilimaster</t>
   </si>
   <si>
-    <t>Financial Analysis</t>
+    <t>Auto Truck Group</t>
   </si>
   <si>
-    <t>Layher North America</t>
+    <t>Electric Custom Solutions</t>
   </si>
   <si>
-    <t>Competitor Overview</t>
-  </si>
-  <si>
-    <t>Altrad Generation</t>
-  </si>
-  <si>
-    <t>Market Research</t>
+    <t>Industry Overview Page 10</t>
   </si>
   <si>
     <t>Median</t>
@@ -1349,10 +1340,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="D8" s="8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E8" s="9">
         <f>C$8*D$8</f>
@@ -1365,11 +1356,11 @@
         <v>12</v>
       </c>
       <c r="I8" s="10">
-        <f>HYPERLINK("No source", "Historical data")</f>
+        <f>HYPERLINK("", "Page 9 Custom Up-fitting Description")</f>
         <v>0</v>
       </c>
       <c r="J8" s="10">
-        <f>HYPERLINK("", "Sales forecasts")</f>
+        <f>HYPERLINK("", "Industry Overview Page 10")</f>
         <v>0</v>
       </c>
     </row>
@@ -1381,7 +1372,7 @@
         <v>5000</v>
       </c>
       <c r="D9" s="8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E9" s="9">
         <f>C$9*D$9</f>
@@ -1394,11 +1385,11 @@
         <v>15</v>
       </c>
       <c r="I9" s="10">
-        <f>HYPERLINK("No source", "Engineering department estimates")</f>
+        <f>HYPERLINK("", "Page 9 Gold Division Overview")</f>
         <v>0</v>
       </c>
       <c r="J9" s="10">
-        <f>HYPERLINK("", "Departmental projections")</f>
+        <f>HYPERLINK("", "No Source")</f>
         <v>0</v>
       </c>
     </row>
@@ -1407,7 +1398,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="D10" s="8">
         <v>100</v>
@@ -1423,11 +1414,11 @@
         <v>18</v>
       </c>
       <c r="I10" s="10">
-        <f>HYPERLINK("No source", "Market comparison")</f>
+        <f>HYPERLINK("", "Page 9 Product Description")</f>
         <v>0</v>
       </c>
       <c r="J10" s="10">
-        <f>HYPERLINK("", "Inventory system")</f>
+        <f>HYPERLINK("", "No Source")</f>
         <v>0</v>
       </c>
     </row>
@@ -1436,7 +1427,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="D11" s="8">
         <v>20</v>
@@ -1452,11 +1443,11 @@
         <v>21</v>
       </c>
       <c r="I11" s="10">
-        <f>HYPERLINK("No source", "Course cost analysis")</f>
+        <f>HYPERLINK("", "No Source")</f>
         <v>0</v>
       </c>
       <c r="J11" s="10">
-        <f>HYPERLINK("", "Training department schedule")</f>
+        <f>HYPERLINK("", "Page 14 Consulting Notes")</f>
         <v>0</v>
       </c>
     </row>
@@ -1465,10 +1456,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="7">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D12" s="8">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E12" s="9">
         <f>C$12*D$12</f>
@@ -1481,11 +1472,11 @@
         <v>24</v>
       </c>
       <c r="I12" s="10">
-        <f>HYPERLINK("No source", "Average bid")</f>
+        <f>HYPERLINK("", "No Source")</f>
         <v>0</v>
       </c>
       <c r="J12" s="10">
-        <f>HYPERLINK("", "Equipment department pipeline")</f>
+        <f>HYPERLINK("", "No Source")</f>
         <v>0</v>
       </c>
     </row>
@@ -1547,10 +1538,10 @@
         <v>31</v>
       </c>
       <c r="C18" s="7">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="D18" s="8">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="E18" s="9">
         <f>C$18*D$18</f>
@@ -1563,11 +1554,11 @@
         <v>33</v>
       </c>
       <c r="I18" s="10">
-        <f>HYPERLINK("No Source", "Internal financial documents")</f>
+        <f>HYPERLINK("WWW.IBISWORLD.COM", "Industry Report Page 26")</f>
         <v>0</v>
       </c>
       <c r="J18" s="10">
-        <f>HYPERLINK("", "Procurement reports")</f>
+        <f>HYPERLINK("WWW.IBISWORLD.COM", "Industry Report Page 26")</f>
         <v>0</v>
       </c>
     </row>
@@ -1576,10 +1567,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D19" s="8">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E19" s="9">
         <f>C$19*D$19</f>
@@ -1592,11 +1583,11 @@
         <v>36</v>
       </c>
       <c r="I19" s="10">
-        <f>HYPERLINK("No Source", "Labor contracts")</f>
+        <f>HYPERLINK("", "No Source")</f>
         <v>0</v>
       </c>
       <c r="J19" s="10">
-        <f>HYPERLINK("", "Project management system")</f>
+        <f>HYPERLINK("", "No Source")</f>
         <v>0</v>
       </c>
     </row>
@@ -1605,10 +1596,10 @@
         <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="D20" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E20" s="9">
         <f>C$20*D$20</f>
@@ -1621,11 +1612,11 @@
         <v>39</v>
       </c>
       <c r="I20" s="10">
-        <f>HYPERLINK("No Source", "Supplier invoices")</f>
+        <f>HYPERLINK("", "No Source")</f>
         <v>0</v>
       </c>
       <c r="J20" s="10">
-        <f>HYPERLINK("", "Logistics data")</f>
+        <f>HYPERLINK("", "No Source")</f>
         <v>0</v>
       </c>
     </row>
@@ -1634,10 +1625,10 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="D21" s="8">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E21" s="9">
         <f>C$21*D$21</f>
@@ -1650,11 +1641,11 @@
         <v>42</v>
       </c>
       <c r="I21" s="10">
-        <f>HYPERLINK("No Source", "Transportation agreements")</f>
+        <f>HYPERLINK("", "No Source")</f>
         <v>0</v>
       </c>
       <c r="J21" s="10">
-        <f>HYPERLINK("", "Logistics coordinator input")</f>
+        <f>HYPERLINK("", "No Source")</f>
         <v>0</v>
       </c>
     </row>
@@ -1663,10 +1654,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="7">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="D22" s="8">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="E22" s="9">
         <f>C$22*D$22</f>
@@ -1679,11 +1670,11 @@
         <v>45</v>
       </c>
       <c r="I22" s="10">
-        <f>HYPERLINK("No Source", "Safety compliance records")</f>
+        <f>HYPERLINK("", "No Source")</f>
         <v>0</v>
       </c>
       <c r="J22" s="10">
-        <f>HYPERLINK("", "Compliance officer reports")</f>
+        <f>HYPERLINK("", "No Source")</f>
         <v>0</v>
       </c>
     </row>
@@ -1716,7 +1707,7 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="5" customHeight="1">
@@ -1729,24 +1720,24 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -1758,12 +1749,12 @@
         <v>5</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
@@ -1775,12 +1766,12 @@
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
@@ -1792,12 +1783,12 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
@@ -1809,12 +1800,12 @@
         <v>5</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>22</v>
@@ -1826,15 +1817,15 @@
         <v>5</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="6">
         <v>13</v>
@@ -1843,12 +1834,12 @@
         <v>6</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -1860,12 +1851,12 @@
         <v>5</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>34</v>
@@ -1877,12 +1868,12 @@
         <v>5</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>37</v>
@@ -1894,12 +1885,12 @@
         <v>5</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>40</v>
@@ -1911,12 +1902,12 @@
         <v>5</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -1928,15 +1919,15 @@
         <v>5</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D17" s="6">
         <v>23</v>
@@ -1945,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -1953,7 +1944,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D18" s="6">
         <v>7</v>
@@ -1962,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -1970,7 +1961,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D19" s="6">
         <v>7</v>
@@ -1979,7 +1970,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -1987,7 +1978,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D20" s="6">
         <v>14</v>
@@ -1996,15 +1987,15 @@
         <v>23</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D21" s="6">
         <v>6</v>
@@ -2013,15 +2004,15 @@
         <v>9</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D22" s="6">
         <v>13</v>
@@ -2030,15 +2021,15 @@
         <v>21</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D23" s="6">
         <v>22</v>
@@ -2047,15 +2038,15 @@
         <v>21</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" s="6">
         <v>31</v>
@@ -2064,15 +2055,15 @@
         <v>21</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D25" s="6">
         <v>6</v>
@@ -2081,15 +2072,15 @@
         <v>3</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="6">
         <v>13</v>
@@ -2098,15 +2089,15 @@
         <v>5</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" s="6">
         <v>21</v>
@@ -2115,15 +2106,15 @@
         <v>5</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="6">
         <v>23</v>
@@ -2132,15 +2123,15 @@
         <v>5</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D29" s="6">
         <v>26</v>
@@ -2149,15 +2140,15 @@
         <v>5</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="6">
         <v>27</v>
@@ -2166,15 +2157,15 @@
         <v>5</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" s="6">
         <v>28</v>
@@ -2183,15 +2174,15 @@
         <v>5</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" s="6">
         <v>29</v>
@@ -2200,15 +2191,15 @@
         <v>5</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" s="6">
         <v>32</v>
@@ -2217,15 +2208,15 @@
         <v>5</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="6">
         <v>33</v>
@@ -2234,15 +2225,15 @@
         <v>5</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" s="6">
         <v>36</v>
@@ -2251,15 +2242,15 @@
         <v>5</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="6">
         <v>37</v>
@@ -2268,15 +2259,15 @@
         <v>5</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D37" s="6">
         <v>38</v>
@@ -2285,15 +2276,15 @@
         <v>16</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D38" s="6">
         <v>6</v>
@@ -2302,15 +2293,15 @@
         <v>3</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D39" s="6">
         <v>6</v>
@@ -2319,15 +2310,15 @@
         <v>2</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D40" s="6">
         <v>33</v>
@@ -2336,15 +2327,15 @@
         <v>9</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D41" s="6">
         <v>47</v>
@@ -2353,15 +2344,15 @@
         <v>9</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D42" s="6">
         <v>61</v>
@@ -2370,15 +2361,15 @@
         <v>9</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D43" s="6">
         <v>75</v>
@@ -2387,15 +2378,15 @@
         <v>9</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D44" s="6">
         <v>89</v>
@@ -2404,15 +2395,15 @@
         <v>9</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D45" s="6">
         <v>103</v>
@@ -2421,15 +2412,15 @@
         <v>9</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D46" s="6">
         <v>117</v>
@@ -2438,15 +2429,15 @@
         <v>9</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D47" s="6">
         <v>131</v>
@@ -2455,15 +2446,15 @@
         <v>9</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D48" s="6">
         <v>145</v>
@@ -2472,15 +2463,15 @@
         <v>9</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D49" s="6">
         <v>159</v>
@@ -2489,15 +2480,15 @@
         <v>9</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D50" s="6">
         <v>173</v>
@@ -2506,15 +2497,15 @@
         <v>9</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D51" s="6">
         <v>6</v>
@@ -2523,15 +2514,15 @@
         <v>3</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D52" s="6">
         <v>25</v>
@@ -2540,15 +2531,15 @@
         <v>10</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D53" s="6">
         <v>6</v>
@@ -2557,7 +2548,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3395,10 +3386,10 @@
         <v>78</v>
       </c>
       <c r="C9" s="8">
-        <v>50</v>
-      </c>
-      <c r="D9" s="14">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>130000</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>79</v>
@@ -3942,16 +3933,16 @@
         <v>82</v>
       </c>
       <c r="C10" s="8">
-        <v>10</v>
-      </c>
-      <c r="D10" s="14">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>90000</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F10" s="8">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G10" s="9">
         <f>if(E10="salary",D10/12, F10*D10)</f>
@@ -4489,13 +4480,13 @@
         <v>84</v>
       </c>
       <c r="C11" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F11" s="8">
         <v>160</v>
@@ -4505,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>81</v>
@@ -5033,19 +5024,19 @@
     </row>
     <row r="12" spans="2:142">
       <c r="B12" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="8">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3000</v>
+        <v>15</v>
+      </c>
+      <c r="D12" s="14">
+        <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G12" s="9">
         <f>if(E12="salary",D12/12, F12*D12)</f>
@@ -5583,16 +5574,16 @@
         <v>89</v>
       </c>
       <c r="C13" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>6000</v>
+        <v>50000</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F13" s="8">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G13" s="9">
         <f>if(E13="salary",D13/12, F13*D13)</f>
@@ -6672,7 +6663,7 @@
     </row>
     <row r="21" spans="2:3" ht="10" customHeight="1">
       <c r="B21" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="17"/>
     </row>
@@ -6734,7 +6725,7 @@
         <v>95</v>
       </c>
       <c r="I6" s="18">
-        <v>42736</v>
+        <v>40909</v>
       </c>
       <c r="J6" s="18">
         <f>edate(I6,12)</f>
@@ -6773,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="18">
-        <v>42736</v>
+        <v>40909</v>
       </c>
       <c r="V6" s="18">
         <f>edate(U6,1)</f>
@@ -7641,7 +7632,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="7">
-        <v>150000</v>
+        <v>95512</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>101</v>
@@ -8178,13 +8169,13 @@
         <v>103</v>
       </c>
       <c r="C9" s="7">
-        <v>12000</v>
+        <v>34604</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>81</v>
@@ -8712,16 +8703,16 @@
     </row>
     <row r="10" spans="2:140">
       <c r="B10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="7">
+        <v>25134</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>81</v>
@@ -9249,16 +9240,16 @@
     </row>
     <row r="11" spans="2:140">
       <c r="B11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9784</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C11" s="7">
-        <v>5000</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>81</v>
@@ -9786,16 +9777,16 @@
     </row>
     <row r="12" spans="2:140">
       <c r="B12" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="7">
-        <v>50000</v>
+        <v>18995</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>81</v>
@@ -10845,7 +10836,7 @@
     </row>
     <row r="15" spans="2:140">
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:140">
@@ -10856,10 +10847,10 @@
         <v>97</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>99</v>
@@ -10867,19 +10858,19 @@
     </row>
     <row r="17" spans="2:140">
       <c r="B17" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="7">
-        <v>750000</v>
+        <v>500000</v>
       </c>
       <c r="D17" s="8">
         <v>10</v>
       </c>
       <c r="E17" s="19">
-        <v>44197</v>
+        <v>45292</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>81</v>
@@ -11407,19 +11398,19 @@
     </row>
     <row r="18" spans="2:140">
       <c r="B18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="7">
+        <v>200000</v>
+      </c>
+      <c r="D18" s="8">
+        <v>20</v>
+      </c>
+      <c r="E18" s="19">
+        <v>45292</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C18" s="7">
-        <v>158423</v>
-      </c>
-      <c r="D18" s="8">
-        <v>5</v>
-      </c>
-      <c r="E18" s="19">
-        <v>44197</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>81</v>
@@ -11947,19 +11938,19 @@
     </row>
     <row r="19" spans="2:140">
       <c r="B19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="7">
+        <v>100000</v>
+      </c>
+      <c r="D19" s="8">
+        <v>5</v>
+      </c>
+      <c r="E19" s="19">
+        <v>45292</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C19" s="7">
-        <v>315712</v>
-      </c>
-      <c r="D19" s="8">
-        <v>15</v>
-      </c>
-      <c r="E19" s="19">
-        <v>44197</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>81</v>
@@ -12487,19 +12478,19 @@
     </row>
     <row r="20" spans="2:140">
       <c r="B20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="7">
+        <v>50000</v>
+      </c>
+      <c r="D20" s="8">
+        <v>10</v>
+      </c>
+      <c r="E20" s="19">
+        <v>45292</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="C20" s="7">
-        <v>9559</v>
-      </c>
-      <c r="D20" s="8">
-        <v>3</v>
-      </c>
-      <c r="E20" s="19">
-        <v>44197</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>81</v>
@@ -13027,19 +13018,19 @@
     </row>
     <row r="21" spans="2:140">
       <c r="B21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="7">
+        <v>300000</v>
+      </c>
+      <c r="D21" s="8">
+        <v>8</v>
+      </c>
+      <c r="E21" s="19">
+        <v>45292</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C21" s="7">
-        <v>40190</v>
-      </c>
-      <c r="D21" s="8">
-        <v>10</v>
-      </c>
-      <c r="E21" s="19">
-        <v>44197</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>81</v>
@@ -14089,7 +14080,7 @@
     </row>
     <row r="24" spans="2:140">
       <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:140">
@@ -14100,18 +14091,18 @@
         <v>97</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:140">
       <c r="B26" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="7">
-        <v>750000</v>
+        <v>500000</v>
       </c>
       <c r="D26" s="8">
         <v>10</v>
@@ -14643,13 +14634,13 @@
     </row>
     <row r="27" spans="2:140">
       <c r="B27" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="7">
-        <v>158423</v>
+        <v>200000</v>
       </c>
       <c r="D27" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E27" s="9">
         <f>C27/(D27*12)</f>
@@ -15178,13 +15169,13 @@
     </row>
     <row r="28" spans="2:140">
       <c r="B28" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="7">
-        <v>315712</v>
+        <v>100000</v>
       </c>
       <c r="D28" s="8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E28" s="9">
         <f>C28/(D28*12)</f>
@@ -15713,13 +15704,13 @@
     </row>
     <row r="29" spans="2:140">
       <c r="B29" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="7">
-        <v>9559</v>
+        <v>50000</v>
       </c>
       <c r="D29" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E29" s="9">
         <f>C29/(D29*12)</f>
@@ -16248,13 +16239,13 @@
     </row>
     <row r="30" spans="2:140">
       <c r="B30" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="7">
-        <v>40190</v>
+        <v>300000</v>
       </c>
       <c r="D30" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30" s="9">
         <f>C30/(D30*12)</f>
@@ -17322,49 +17313,49 @@
     </row>
     <row r="37" spans="2:3" ht="10" customHeight="1">
       <c r="B37" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="17"/>
     </row>
     <row r="38" spans="2:3" ht="10" customHeight="1">
       <c r="B38" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="17"/>
     </row>
     <row r="39" spans="2:3" ht="10" customHeight="1">
       <c r="B39" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="2:3" ht="10" customHeight="1">
       <c r="B40" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="17"/>
     </row>
     <row r="41" spans="2:3" ht="10" customHeight="1">
       <c r="B41" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="17"/>
     </row>
     <row r="42" spans="2:3" ht="10" customHeight="1">
       <c r="B42" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="17"/>
     </row>
     <row r="43" spans="2:3" ht="10" customHeight="1">
       <c r="B43" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="17"/>
     </row>
     <row r="44" spans="2:3" ht="10" customHeight="1">
       <c r="B44" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="17"/>
     </row>
@@ -17388,7 +17379,7 @@
   <sheetData>
     <row r="2" spans="2:135">
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="2:135" ht="5" customHeight="1">
@@ -17527,7 +17518,7 @@
     </row>
     <row r="5" spans="2:135">
       <c r="E5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>94</v>
@@ -17535,7 +17526,7 @@
     </row>
     <row r="6" spans="2:135">
       <c r="E6" s="18">
-        <v>42736</v>
+        <v>40909</v>
       </c>
       <c r="F6" s="18">
         <f>edate(E6,12)</f>
@@ -17574,7 +17565,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="18">
-        <v>42736</v>
+        <v>40909</v>
       </c>
       <c r="Q6" s="18">
         <f>edate(P6,1)</f>
@@ -18055,7 +18046,7 @@
     </row>
     <row r="7" spans="2:135">
       <c r="B7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>59</v>
@@ -21045,7 +21036,7 @@
     </row>
     <row r="13" spans="2:135">
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="15">
         <f>+E$8+E$9+E$10+E$11+E$12</f>
@@ -21570,7 +21561,7 @@
     </row>
     <row r="14" spans="2:135">
       <c r="B14" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="23">
         <f>(F$13-E$13)/E$13</f>
@@ -24672,7 +24663,7 @@
     </row>
     <row r="21" spans="2:135">
       <c r="B21" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="15">
         <f>+E$16+E$17+E$18+E$19+E$20</f>
@@ -25197,7 +25188,7 @@
     </row>
     <row r="22" spans="2:135">
       <c r="C22" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="23">
         <f>E21/E$13</f>
@@ -25722,7 +25713,7 @@
     </row>
     <row r="23" spans="2:135">
       <c r="B23" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="15">
         <f>+E$13-E$21</f>
@@ -26247,7 +26238,7 @@
     </row>
     <row r="24" spans="2:135">
       <c r="C24" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" s="23">
         <f>E23/E$13</f>
@@ -26772,7 +26763,7 @@
     </row>
     <row r="26" spans="2:135">
       <c r="B26" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="9">
         <f>sumif(P6:EE6, E6, P26:EE26)</f>
@@ -27297,7 +27288,7 @@
     </row>
     <row r="27" spans="2:135">
       <c r="B27" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="9">
         <f>sumif(P6:EE6, E6, P27:EE27)</f>
@@ -27822,7 +27813,7 @@
     </row>
     <row r="28" spans="2:135">
       <c r="B28" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="9">
         <f>sumif(P6:EE6, E6, P28:EE28)</f>
@@ -28227,7 +28218,7 @@
     </row>
     <row r="29" spans="2:135">
       <c r="B29" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" s="15">
         <f>+E$23-E$26-E$27</f>
@@ -28752,7 +28743,7 @@
     </row>
     <row r="30" spans="2:135">
       <c r="C30" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="23">
         <f>E29/E$13</f>
@@ -29277,7 +29268,7 @@
     </row>
     <row r="32" spans="2:135">
       <c r="B32" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="9">
         <f>sumif(P6:EE6, E6, P32:EE32)</f>
@@ -29802,7 +29793,7 @@
     </row>
     <row r="33" spans="2:135">
       <c r="B33" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="15">
         <f>+E$29-E$32</f>
@@ -30327,7 +30318,7 @@
     </row>
     <row r="34" spans="2:135">
       <c r="C34" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" s="23">
         <f>E33/E$13</f>
@@ -30852,7 +30843,7 @@
     </row>
     <row r="36" spans="2:135">
       <c r="B36" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E36" s="9">
         <f>sumif(P6:EE6, E6, P36:EE36)</f>
@@ -31257,7 +31248,7 @@
     </row>
     <row r="37" spans="2:135">
       <c r="B37" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C37" s="25">
         <v>0.21</v>
@@ -31785,7 +31776,7 @@
     </row>
     <row r="38" spans="2:135">
       <c r="B38" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" s="15">
         <f>+E$33-E$36-E$37</f>
@@ -32310,7 +32301,7 @@
     </row>
     <row r="39" spans="2:135">
       <c r="C39" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" s="23">
         <f>E38/E$13</f>
@@ -32854,7 +32845,7 @@
   <sheetData>
     <row r="2" spans="2:135">
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:135" ht="5" customHeight="1">
@@ -33765,7 +33756,7 @@
     </row>
     <row r="8" spans="2:135">
       <c r="B8" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="9">
         <f>sumif(P6:EE6, E6, P8:EE8)</f>
@@ -34290,7 +34281,7 @@
     </row>
     <row r="9" spans="2:135">
       <c r="B9" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="9">
         <f>sumif(P6:EE6, E6, P9:EE9)</f>
@@ -34815,7 +34806,7 @@
     </row>
     <row r="10" spans="2:135">
       <c r="B10" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="9">
         <f>sumif(P6:EE6, E6, P10:EE10)</f>
@@ -35340,37 +35331,37 @@
     </row>
     <row r="11" spans="2:135">
       <c r="B11" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="2:135">
       <c r="B12" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:135">
       <c r="B13" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="2:135">
       <c r="B14" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="2:135">
       <c r="B15" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="2:135">
       <c r="B16" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -35395,7 +35386,7 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="5" customHeight="1">
@@ -35411,54 +35402,54 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="26">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="26">
-        <v>4000</v>
-      </c>
-      <c r="E6" s="26">
-        <v>500</v>
-      </c>
-      <c r="F6" s="26">
-        <v>1.05</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0.9</v>
-      </c>
-      <c r="H6" s="26">
-        <v>10</v>
+      <c r="D6" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>164</v>
@@ -35471,26 +35462,26 @@
       <c r="B7" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="26">
-        <v>3000</v>
-      </c>
-      <c r="D7" s="26">
-        <v>2900</v>
-      </c>
-      <c r="E7" s="26">
-        <v>350</v>
-      </c>
-      <c r="F7" s="26">
-        <v>1.1</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0.95</v>
-      </c>
-      <c r="H7" s="26">
-        <v>8</v>
+      <c r="C7" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>165</v>
@@ -35498,28 +35489,28 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="26">
-        <v>4500</v>
-      </c>
-      <c r="D8" s="26">
-        <v>4300</v>
-      </c>
-      <c r="E8" s="26">
-        <v>480</v>
-      </c>
-      <c r="F8" s="26">
-        <v>0.98</v>
-      </c>
-      <c r="G8" s="26">
-        <v>0.88</v>
-      </c>
-      <c r="H8" s="26">
-        <v>9</v>
+        <v>167</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>165</v>
@@ -35527,28 +35518,28 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="26">
-        <v>3500</v>
-      </c>
-      <c r="D9" s="26">
-        <v>3400</v>
-      </c>
-      <c r="E9" s="26">
-        <v>440</v>
-      </c>
-      <c r="F9" s="26">
-        <v>1.07</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0.92</v>
-      </c>
-      <c r="H9" s="26">
-        <v>11</v>
+        <v>168</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>165</v>
@@ -35556,28 +35547,28 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="26">
-        <v>2800</v>
-      </c>
-      <c r="D10" s="26">
-        <v>2700</v>
-      </c>
-      <c r="E10" s="26">
-        <v>390</v>
-      </c>
-      <c r="F10" s="26">
-        <v>1.03</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0.89</v>
-      </c>
-      <c r="H10" s="26">
-        <v>7</v>
+        <v>169</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>165</v>
@@ -35585,7 +35576,7 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C11" s="15">
         <f>MEDIAN(C6:C10)</f>
@@ -35614,7 +35605,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="26">
         <f>AVERAGE(C7:C11)</f>
@@ -35661,7 +35652,7 @@
   <sheetData>
     <row r="2" spans="2:138">
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="2:138" ht="5" customHeight="1">
@@ -35805,12 +35796,12 @@
     </row>
     <row r="5" spans="2:138">
       <c r="I5" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:138">
       <c r="I6" s="18">
-        <v>42736</v>
+        <v>40909</v>
       </c>
       <c r="J6" s="18">
         <f>edate(I6,12)</f>
@@ -35851,20 +35842,20 @@
     </row>
     <row r="8" spans="2:138">
       <c r="B8" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:138">
       <c r="B9" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="2:138">
       <c r="B10" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
@@ -35872,7 +35863,7 @@
     </row>
     <row r="11" spans="2:138">
       <c r="B11" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
@@ -35880,7 +35871,7 @@
     </row>
     <row r="12" spans="2:138">
       <c r="B12" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
@@ -35888,7 +35879,7 @@
     </row>
     <row r="13" spans="2:138">
       <c r="B13" s="6">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C13" s="8">
         <v>0</v>
@@ -35896,7 +35887,7 @@
     </row>
     <row r="14" spans="2:138">
       <c r="B14" s="6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
@@ -35904,7 +35895,7 @@
     </row>
     <row r="15" spans="2:138">
       <c r="B15" s="6">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -35912,7 +35903,7 @@
     </row>
     <row r="16" spans="2:138">
       <c r="B16" s="6">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
@@ -35920,7 +35911,7 @@
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="6">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C17" s="8">
         <v>0</v>
@@ -35928,7 +35919,7 @@
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="6">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
@@ -35936,7 +35927,7 @@
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="6">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -35944,7 +35935,7 @@
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I21" s="21">
         <f>'Unit_IS'!E$13</f>
@@ -35989,7 +35980,7 @@
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C23" s="6">
         <f>$C10</f>
@@ -36038,7 +36029,7 @@
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C24" s="6">
         <f>$C11</f>
@@ -36083,7 +36074,7 @@
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C25" s="6">
         <f>$C12</f>
@@ -36124,7 +36115,7 @@
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="6">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C26" s="6">
         <f>$C13</f>
@@ -36161,7 +36152,7 @@
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C27" s="6">
         <f>$C14</f>
@@ -36194,7 +36185,7 @@
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="6">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C28" s="6">
         <f>$C15</f>
@@ -36223,7 +36214,7 @@
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="6">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C29" s="6">
         <f>$C16</f>
@@ -36248,7 +36239,7 @@
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="6">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C30" s="6">
         <f>$C17</f>
@@ -36269,7 +36260,7 @@
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="6">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C31" s="6">
         <f>$C18</f>
@@ -36286,7 +36277,7 @@
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="6">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C32" s="6">
         <f>$C19</f>
@@ -36341,7 +36332,7 @@
     </row>
     <row r="35" spans="2:18">
       <c r="B35" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I35" s="21">
         <f>'Unit_IS'!E$21</f>
@@ -36386,7 +36377,7 @@
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C37" s="6">
         <f>$C10</f>
@@ -36435,7 +36426,7 @@
     </row>
     <row r="38" spans="2:18">
       <c r="B38" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C38" s="6">
         <f>$C11</f>
@@ -36480,7 +36471,7 @@
     </row>
     <row r="39" spans="2:18">
       <c r="B39" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C39" s="6">
         <f>$C12</f>
@@ -36521,7 +36512,7 @@
     </row>
     <row r="40" spans="2:18">
       <c r="B40" s="6">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C40" s="6">
         <f>$C13</f>
@@ -36558,7 +36549,7 @@
     </row>
     <row r="41" spans="2:18">
       <c r="B41" s="6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C41" s="6">
         <f>$C14</f>
@@ -36591,7 +36582,7 @@
     </row>
     <row r="42" spans="2:18">
       <c r="B42" s="6">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C42" s="6">
         <f>$C15</f>
@@ -36620,7 +36611,7 @@
     </row>
     <row r="43" spans="2:18">
       <c r="B43" s="6">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C43" s="6">
         <f>$C16</f>
@@ -36645,7 +36636,7 @@
     </row>
     <row r="44" spans="2:18">
       <c r="B44" s="6">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C44" s="6">
         <f>$C17</f>
@@ -36666,7 +36657,7 @@
     </row>
     <row r="45" spans="2:18">
       <c r="B45" s="6">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C45" s="6">
         <f>$C18</f>
@@ -36683,7 +36674,7 @@
     </row>
     <row r="46" spans="2:18">
       <c r="B46" s="6">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C46" s="6">
         <f>$C19</f>
@@ -36738,7 +36729,7 @@
     </row>
     <row r="49" spans="2:18">
       <c r="B49" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I49" s="21">
         <f>'Unit_IS'!E$23</f>
@@ -36783,7 +36774,7 @@
     </row>
     <row r="51" spans="2:18">
       <c r="B51" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C51" s="6">
         <f>$C10</f>
@@ -36832,7 +36823,7 @@
     </row>
     <row r="52" spans="2:18">
       <c r="B52" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C52" s="6">
         <f>$C11</f>
@@ -36877,7 +36868,7 @@
     </row>
     <row r="53" spans="2:18">
       <c r="B53" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C53" s="6">
         <f>$C12</f>
@@ -36918,7 +36909,7 @@
     </row>
     <row r="54" spans="2:18">
       <c r="B54" s="6">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C54" s="6">
         <f>$C13</f>
@@ -36955,7 +36946,7 @@
     </row>
     <row r="55" spans="2:18">
       <c r="B55" s="6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C55" s="6">
         <f>$C14</f>
@@ -36988,7 +36979,7 @@
     </row>
     <row r="56" spans="2:18">
       <c r="B56" s="6">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C56" s="6">
         <f>$C15</f>
@@ -37017,7 +37008,7 @@
     </row>
     <row r="57" spans="2:18">
       <c r="B57" s="6">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C57" s="6">
         <f>$C16</f>
@@ -37042,7 +37033,7 @@
     </row>
     <row r="58" spans="2:18">
       <c r="B58" s="6">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C58" s="6">
         <f>$C17</f>
@@ -37063,7 +37054,7 @@
     </row>
     <row r="59" spans="2:18">
       <c r="B59" s="6">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C59" s="6">
         <f>$C18</f>
@@ -37080,7 +37071,7 @@
     </row>
     <row r="60" spans="2:18">
       <c r="B60" s="6">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C60" s="6">
         <f>$C19</f>
@@ -37135,7 +37126,7 @@
     </row>
     <row r="63" spans="2:18">
       <c r="B63" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I63" s="21">
         <f>'Unit_IS'!E$26</f>
@@ -37180,7 +37171,7 @@
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C65" s="6">
         <f>$C10</f>
@@ -37229,7 +37220,7 @@
     </row>
     <row r="66" spans="2:18">
       <c r="B66" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C66" s="6">
         <f>$C11</f>
@@ -37274,7 +37265,7 @@
     </row>
     <row r="67" spans="2:18">
       <c r="B67" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C67" s="6">
         <f>$C12</f>
@@ -37315,7 +37306,7 @@
     </row>
     <row r="68" spans="2:18">
       <c r="B68" s="6">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C68" s="6">
         <f>$C13</f>
@@ -37352,7 +37343,7 @@
     </row>
     <row r="69" spans="2:18">
       <c r="B69" s="6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C69" s="6">
         <f>$C14</f>
@@ -37385,7 +37376,7 @@
     </row>
     <row r="70" spans="2:18">
       <c r="B70" s="6">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C70" s="6">
         <f>$C15</f>
@@ -37414,7 +37405,7 @@
     </row>
     <row r="71" spans="2:18">
       <c r="B71" s="6">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C71" s="6">
         <f>$C16</f>
@@ -37439,7 +37430,7 @@
     </row>
     <row r="72" spans="2:18">
       <c r="B72" s="6">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C72" s="6">
         <f>$C17</f>
@@ -37460,7 +37451,7 @@
     </row>
     <row r="73" spans="2:18">
       <c r="B73" s="6">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C73" s="6">
         <f>$C18</f>
@@ -37477,7 +37468,7 @@
     </row>
     <row r="74" spans="2:18">
       <c r="B74" s="6">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C74" s="6">
         <f>$C19</f>
@@ -37532,7 +37523,7 @@
     </row>
     <row r="77" spans="2:18">
       <c r="B77" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I77" s="21">
         <f>'Unit_IS'!E$27</f>
@@ -37577,7 +37568,7 @@
     </row>
     <row r="79" spans="2:18">
       <c r="B79" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C79" s="6">
         <f>$C10</f>
@@ -37626,7 +37617,7 @@
     </row>
     <row r="80" spans="2:18">
       <c r="B80" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C80" s="6">
         <f>$C11</f>
@@ -37671,7 +37662,7 @@
     </row>
     <row r="81" spans="2:18">
       <c r="B81" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C81" s="6">
         <f>$C12</f>
@@ -37712,7 +37703,7 @@
     </row>
     <row r="82" spans="2:18">
       <c r="B82" s="6">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C82" s="6">
         <f>$C13</f>
@@ -37749,7 +37740,7 @@
     </row>
     <row r="83" spans="2:18">
       <c r="B83" s="6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C83" s="6">
         <f>$C14</f>
@@ -37782,7 +37773,7 @@
     </row>
     <row r="84" spans="2:18">
       <c r="B84" s="6">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C84" s="6">
         <f>$C15</f>
@@ -37811,7 +37802,7 @@
     </row>
     <row r="85" spans="2:18">
       <c r="B85" s="6">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C85" s="6">
         <f>$C16</f>
@@ -37836,7 +37827,7 @@
     </row>
     <row r="86" spans="2:18">
       <c r="B86" s="6">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C86" s="6">
         <f>$C17</f>
@@ -37857,7 +37848,7 @@
     </row>
     <row r="87" spans="2:18">
       <c r="B87" s="6">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C87" s="6">
         <f>$C18</f>
@@ -37874,7 +37865,7 @@
     </row>
     <row r="88" spans="2:18">
       <c r="B88" s="6">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C88" s="6">
         <f>$C19</f>
@@ -37929,7 +37920,7 @@
     </row>
     <row r="91" spans="2:18">
       <c r="B91" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I91" s="21">
         <f>'Unit_IS'!E$28</f>
@@ -37974,7 +37965,7 @@
     </row>
     <row r="93" spans="2:18">
       <c r="B93" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C93" s="6">
         <f>$C10</f>
@@ -38023,7 +38014,7 @@
     </row>
     <row r="94" spans="2:18">
       <c r="B94" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C94" s="6">
         <f>$C11</f>
@@ -38068,7 +38059,7 @@
     </row>
     <row r="95" spans="2:18">
       <c r="B95" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C95" s="6">
         <f>$C12</f>
@@ -38109,7 +38100,7 @@
     </row>
     <row r="96" spans="2:18">
       <c r="B96" s="6">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C96" s="6">
         <f>$C13</f>
@@ -38146,7 +38137,7 @@
     </row>
     <row r="97" spans="2:18">
       <c r="B97" s="6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C97" s="6">
         <f>$C14</f>
@@ -38179,7 +38170,7 @@
     </row>
     <row r="98" spans="2:18">
       <c r="B98" s="6">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C98" s="6">
         <f>$C15</f>
@@ -38208,7 +38199,7 @@
     </row>
     <row r="99" spans="2:18">
       <c r="B99" s="6">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C99" s="6">
         <f>$C16</f>
@@ -38233,7 +38224,7 @@
     </row>
     <row r="100" spans="2:18">
       <c r="B100" s="6">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C100" s="6">
         <f>$C17</f>
@@ -38254,7 +38245,7 @@
     </row>
     <row r="101" spans="2:18">
       <c r="B101" s="6">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C101" s="6">
         <f>$C18</f>
@@ -38271,7 +38262,7 @@
     </row>
     <row r="102" spans="2:18">
       <c r="B102" s="6">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C102" s="6">
         <f>$C19</f>
@@ -38326,7 +38317,7 @@
     </row>
     <row r="105" spans="2:18">
       <c r="B105" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I105" s="21">
         <f>'Unit_IS'!E$29</f>
@@ -38371,7 +38362,7 @@
     </row>
     <row r="107" spans="2:18">
       <c r="B107" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C107" s="6">
         <f>$C10</f>
@@ -38420,7 +38411,7 @@
     </row>
     <row r="108" spans="2:18">
       <c r="B108" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C108" s="6">
         <f>$C11</f>
@@ -38465,7 +38456,7 @@
     </row>
     <row r="109" spans="2:18">
       <c r="B109" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C109" s="6">
         <f>$C12</f>
@@ -38506,7 +38497,7 @@
     </row>
     <row r="110" spans="2:18">
       <c r="B110" s="6">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C110" s="6">
         <f>$C13</f>
@@ -38543,7 +38534,7 @@
     </row>
     <row r="111" spans="2:18">
       <c r="B111" s="6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C111" s="6">
         <f>$C14</f>
@@ -38576,7 +38567,7 @@
     </row>
     <row r="112" spans="2:18">
       <c r="B112" s="6">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C112" s="6">
         <f>$C15</f>
@@ -38605,7 +38596,7 @@
     </row>
     <row r="113" spans="2:18">
       <c r="B113" s="6">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C113" s="6">
         <f>$C16</f>
@@ -38630,7 +38621,7 @@
     </row>
     <row r="114" spans="2:18">
       <c r="B114" s="6">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C114" s="6">
         <f>$C17</f>
@@ -38651,7 +38642,7 @@
     </row>
     <row r="115" spans="2:18">
       <c r="B115" s="6">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C115" s="6">
         <f>$C18</f>
@@ -38668,7 +38659,7 @@
     </row>
     <row r="116" spans="2:18">
       <c r="B116" s="6">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C116" s="6">
         <f>$C19</f>
@@ -38723,7 +38714,7 @@
     </row>
     <row r="119" spans="2:18">
       <c r="B119" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I119" s="21">
         <f>'Unit_IS'!E$32</f>
@@ -38768,7 +38759,7 @@
     </row>
     <row r="121" spans="2:18">
       <c r="B121" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C121" s="6">
         <f>$C10</f>
@@ -38817,7 +38808,7 @@
     </row>
     <row r="122" spans="2:18">
       <c r="B122" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C122" s="6">
         <f>$C11</f>
@@ -38862,7 +38853,7 @@
     </row>
     <row r="123" spans="2:18">
       <c r="B123" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C123" s="6">
         <f>$C12</f>
@@ -38903,7 +38894,7 @@
     </row>
     <row r="124" spans="2:18">
       <c r="B124" s="6">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C124" s="6">
         <f>$C13</f>
@@ -38940,7 +38931,7 @@
     </row>
     <row r="125" spans="2:18">
       <c r="B125" s="6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C125" s="6">
         <f>$C14</f>
@@ -38973,7 +38964,7 @@
     </row>
     <row r="126" spans="2:18">
       <c r="B126" s="6">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C126" s="6">
         <f>$C15</f>
@@ -39002,7 +38993,7 @@
     </row>
     <row r="127" spans="2:18">
       <c r="B127" s="6">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C127" s="6">
         <f>$C16</f>
@@ -39027,7 +39018,7 @@
     </row>
     <row r="128" spans="2:18">
       <c r="B128" s="6">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C128" s="6">
         <f>$C17</f>
@@ -39048,7 +39039,7 @@
     </row>
     <row r="129" spans="2:18">
       <c r="B129" s="6">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C129" s="6">
         <f>$C18</f>
@@ -39065,7 +39056,7 @@
     </row>
     <row r="130" spans="2:18">
       <c r="B130" s="6">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C130" s="6">
         <f>$C19</f>
@@ -39120,7 +39111,7 @@
     </row>
     <row r="133" spans="2:18">
       <c r="B133" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I133" s="21">
         <f>'Unit_IS'!E$33</f>
@@ -39165,7 +39156,7 @@
     </row>
     <row r="135" spans="2:18">
       <c r="B135" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C135" s="6">
         <f>$C10</f>
@@ -39214,7 +39205,7 @@
     </row>
     <row r="136" spans="2:18">
       <c r="B136" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C136" s="6">
         <f>$C11</f>
@@ -39259,7 +39250,7 @@
     </row>
     <row r="137" spans="2:18">
       <c r="B137" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C137" s="6">
         <f>$C12</f>
@@ -39300,7 +39291,7 @@
     </row>
     <row r="138" spans="2:18">
       <c r="B138" s="6">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C138" s="6">
         <f>$C13</f>
@@ -39337,7 +39328,7 @@
     </row>
     <row r="139" spans="2:18">
       <c r="B139" s="6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C139" s="6">
         <f>$C14</f>
@@ -39370,7 +39361,7 @@
     </row>
     <row r="140" spans="2:18">
       <c r="B140" s="6">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C140" s="6">
         <f>$C15</f>
@@ -39399,7 +39390,7 @@
     </row>
     <row r="141" spans="2:18">
       <c r="B141" s="6">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C141" s="6">
         <f>$C16</f>
@@ -39424,7 +39415,7 @@
     </row>
     <row r="142" spans="2:18">
       <c r="B142" s="6">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C142" s="6">
         <f>$C17</f>
@@ -39445,7 +39436,7 @@
     </row>
     <row r="143" spans="2:18">
       <c r="B143" s="6">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C143" s="6">
         <f>$C18</f>
@@ -39462,7 +39453,7 @@
     </row>
     <row r="144" spans="2:18">
       <c r="B144" s="6">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C144" s="6">
         <f>$C19</f>
@@ -39517,7 +39508,7 @@
     </row>
     <row r="147" spans="2:18">
       <c r="B147" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I147" s="21">
         <f>'Unit_IS'!E$36</f>
@@ -39562,7 +39553,7 @@
     </row>
     <row r="149" spans="2:18">
       <c r="B149" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C149" s="6">
         <f>$C10</f>
@@ -39611,7 +39602,7 @@
     </row>
     <row r="150" spans="2:18">
       <c r="B150" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C150" s="6">
         <f>$C11</f>
@@ -39656,7 +39647,7 @@
     </row>
     <row r="151" spans="2:18">
       <c r="B151" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C151" s="6">
         <f>$C12</f>
@@ -39697,7 +39688,7 @@
     </row>
     <row r="152" spans="2:18">
       <c r="B152" s="6">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C152" s="6">
         <f>$C13</f>
@@ -39734,7 +39725,7 @@
     </row>
     <row r="153" spans="2:18">
       <c r="B153" s="6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C153" s="6">
         <f>$C14</f>
@@ -39767,7 +39758,7 @@
     </row>
     <row r="154" spans="2:18">
       <c r="B154" s="6">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C154" s="6">
         <f>$C15</f>
@@ -39796,7 +39787,7 @@
     </row>
     <row r="155" spans="2:18">
       <c r="B155" s="6">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C155" s="6">
         <f>$C16</f>
@@ -39821,7 +39812,7 @@
     </row>
     <row r="156" spans="2:18">
       <c r="B156" s="6">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C156" s="6">
         <f>$C17</f>
@@ -39842,7 +39833,7 @@
     </row>
     <row r="157" spans="2:18">
       <c r="B157" s="6">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C157" s="6">
         <f>$C18</f>
@@ -39859,7 +39850,7 @@
     </row>
     <row r="158" spans="2:18">
       <c r="B158" s="6">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C158" s="6">
         <f>$C19</f>
@@ -39914,7 +39905,7 @@
     </row>
     <row r="161" spans="2:18">
       <c r="B161" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I161" s="21">
         <f>'Unit_IS'!P$38</f>
@@ -39959,7 +39950,7 @@
     </row>
     <row r="163" spans="2:18">
       <c r="B163" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C163" s="6">
         <f>$C10</f>
@@ -40008,7 +39999,7 @@
     </row>
     <row r="164" spans="2:18">
       <c r="B164" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C164" s="6">
         <f>$C11</f>
@@ -40053,7 +40044,7 @@
     </row>
     <row r="165" spans="2:18">
       <c r="B165" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C165" s="6">
         <f>$C12</f>
@@ -40094,7 +40085,7 @@
     </row>
     <row r="166" spans="2:18">
       <c r="B166" s="6">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C166" s="6">
         <f>$C13</f>
@@ -40131,7 +40122,7 @@
     </row>
     <row r="167" spans="2:18">
       <c r="B167" s="6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C167" s="6">
         <f>$C14</f>
@@ -40164,7 +40155,7 @@
     </row>
     <row r="168" spans="2:18">
       <c r="B168" s="6">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C168" s="6">
         <f>$C15</f>
@@ -40193,7 +40184,7 @@
     </row>
     <row r="169" spans="2:18">
       <c r="B169" s="6">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C169" s="6">
         <f>$C16</f>
@@ -40218,7 +40209,7 @@
     </row>
     <row r="170" spans="2:18">
       <c r="B170" s="6">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C170" s="6">
         <f>$C17</f>
@@ -40239,7 +40230,7 @@
     </row>
     <row r="171" spans="2:18">
       <c r="B171" s="6">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C171" s="6">
         <f>$C18</f>
@@ -40256,7 +40247,7 @@
     </row>
     <row r="172" spans="2:18">
       <c r="B172" s="6">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C172" s="6">
         <f>$C19</f>
@@ -40329,7 +40320,7 @@
   <sheetData>
     <row r="2" spans="2:19">
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="5" customHeight="1">
@@ -40354,7 +40345,7 @@
     </row>
     <row r="5" spans="2:19">
       <c r="E5" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>93</v>
@@ -40362,7 +40353,7 @@
     </row>
     <row r="6" spans="2:19">
       <c r="J6" s="18">
-        <v>42736</v>
+        <v>40909</v>
       </c>
       <c r="K6" s="18">
         <f>edate(J6,12)</f>
@@ -40403,7 +40394,7 @@
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="21">
         <f>'Roll Out'!I$33</f>
@@ -40448,7 +40439,7 @@
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" s="21">
         <f>'Roll Out'!I$47</f>
@@ -40493,7 +40484,7 @@
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J10" s="15">
         <f>+J$8-J$9</f>
@@ -40538,7 +40529,7 @@
     </row>
     <row r="11" spans="2:19">
       <c r="C11" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J11" s="23">
         <f>J10/J$8</f>
@@ -40583,7 +40574,7 @@
     </row>
     <row r="13" spans="2:19">
       <c r="B13" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J13" s="21">
         <f>'Roll Out'!I$75</f>
@@ -40628,7 +40619,7 @@
     </row>
     <row r="14" spans="2:19">
       <c r="B14" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J14" s="21">
         <f>'Roll Out'!I$89</f>
@@ -40673,12 +40664,12 @@
     </row>
     <row r="15" spans="2:19">
       <c r="B15" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J16" s="15">
         <f>+J$10-J$13-J$14</f>
@@ -40723,7 +40714,7 @@
     </row>
     <row r="17" spans="2:19">
       <c r="C17" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J17" s="23">
         <f>J16/J$8</f>
@@ -40768,7 +40759,7 @@
     </row>
     <row r="19" spans="2:19">
       <c r="B19" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J19" s="21">
         <f>'Roll Out'!I$131</f>
@@ -40813,7 +40804,7 @@
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J20" s="15">
         <f>+J$16-J$19</f>
@@ -40858,7 +40849,7 @@
     </row>
     <row r="21" spans="2:19">
       <c r="C21" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J21" s="23">
         <f>J20/J$8</f>
@@ -40903,7 +40894,7 @@
     </row>
     <row r="23" spans="2:19">
       <c r="B23" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J23" s="21">
         <f>'Roll Out'!I$159</f>
@@ -40948,7 +40939,7 @@
     </row>
     <row r="24" spans="2:19">
       <c r="B24" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" s="25">
         <v>0.21</v>
@@ -40996,7 +40987,7 @@
     </row>
     <row r="25" spans="2:19">
       <c r="B25" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J25" s="15">
         <f>+J$20-J$23-J$24</f>
@@ -41041,7 +41032,7 @@
     </row>
     <row r="26" spans="2:19">
       <c r="C26" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J26" s="23">
         <f>J25/J$8</f>
@@ -41104,7 +41095,7 @@
   <sheetData>
     <row r="2" spans="2:135">
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:135" ht="5" customHeight="1">
@@ -42015,7 +42006,7 @@
     </row>
     <row r="8" spans="2:135">
       <c r="B8" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="9">
         <f>sumif(P6:EE6, E6, P8:EE8)</f>
@@ -42540,7 +42531,7 @@
     </row>
     <row r="9" spans="2:135">
       <c r="B9" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="9">
         <f>sumif(P6:EE6, E6, P9:EE9)</f>
@@ -43065,7 +43056,7 @@
     </row>
     <row r="10" spans="2:135">
       <c r="B10" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="9">
         <f>sumif(P6:EE6, E6, P10:EE10)</f>
@@ -43590,37 +43581,37 @@
     </row>
     <row r="11" spans="2:135">
       <c r="B11" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="2:135">
       <c r="B12" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:135">
       <c r="B13" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="2:135">
       <c r="B14" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="2:135">
       <c r="B15" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="2:135">
       <c r="B16" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/Financial_Model.xlsx
+++ b/outputs/Financial_Model.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="252">
   <si>
     <t>Revenue and COGS Build</t>
   </si>
@@ -55,49 +55,49 @@
     <t>Frequency Source</t>
   </si>
   <si>
-    <t>Custom Vehicle Up-fitting</t>
+    <t>System Scaffolding Rentals</t>
   </si>
   <si>
-    <t>Standard rate for full vehicle modification</t>
+    <t>Rental costs prevailing from continued demand in market.</t>
   </si>
   <si>
-    <t>Monthly volume as projected from backlog estimates</t>
+    <t>Core product offering with consistent client loyalty.</t>
   </si>
   <si>
-    <t>Gold Division Prepackaged Systems</t>
+    <t>Frame Scaffolding Sales</t>
   </si>
   <si>
-    <t>Price for standardized power systems package</t>
+    <t>Sales driven by project requirements in commercial and industrial sectors.</t>
   </si>
   <si>
-    <t>Regular orders, indicative of stable client base</t>
+    <t>Demand influenced by contract type and project size.</t>
   </si>
   <si>
-    <t>Generator Sales</t>
+    <t>Safety Training Programs</t>
   </si>
   <si>
-    <t>Retail sales of Honda generators and pumps</t>
+    <t>Charges for training programs held in line with SAIA accredited standards.</t>
   </si>
   <si>
-    <t>Estimated based on past year performance</t>
+    <t>Niche offering targeting industry professionals.</t>
   </si>
   <si>
-    <t>Consulting and Advisory Services</t>
+    <t>Engineering and Design Services</t>
   </si>
   <si>
-    <t>Support services for OEM clients</t>
+    <t>Specific solutions designed for client projects, verifying structural integrity.</t>
   </si>
   <si>
-    <t>Consulting engagements expected monthly</t>
+    <t>Service tailored to custom project needs, niche market service.</t>
   </si>
   <si>
-    <t>Miscellaneous Parts and Accessories</t>
+    <t>Erection and Dismantling Services</t>
   </si>
   <si>
-    <t>Add-on parts and upgrades</t>
+    <t>Professional services offered in alignment with rental agreements.</t>
   </si>
   <si>
-    <t>High volume due to broad accessory range</t>
+    <t>Demand tied to ongoing projects and equipment rental.</t>
   </si>
   <si>
     <t>Total</t>
@@ -118,49 +118,46 @@
     <t>Cost Source</t>
   </si>
   <si>
-    <t>Steel for Vehicle Construction</t>
+    <t>Frame Scaffolding</t>
   </si>
   <si>
-    <t>Used in most vehicle customizations</t>
+    <t>Costs associated with the procurement and preparation of frame scaffolds for rental.</t>
   </si>
   <si>
-    <t>Projected based on high demand periods</t>
+    <t>Based on consistent client demand across projects.</t>
   </si>
   <si>
-    <t>Electrical Components</t>
+    <t>Swing Stage Equipment</t>
   </si>
   <si>
-    <t>Components for customizing vehicle electrical systems</t>
+    <t>Acquisition costs for equipment conducive to high-rise work.</t>
   </si>
   <si>
-    <t>Based on OEM supply chain cycle</t>
+    <t>Regular high-rise maintenance and installation projects.</t>
   </si>
   <si>
-    <t>Generators and Inverters</t>
+    <t>Shoring Equipment</t>
   </si>
   <si>
-    <t>Power systems included in customization</t>
+    <t>Utilized primarily within industrial projects as demand fluctuates.</t>
   </si>
   <si>
-    <t>Regular procurement cycle for power systems</t>
+    <t>Demand driven by diverse market engagement and safety compliance.</t>
   </si>
   <si>
-    <t>Interior Custom Fittings</t>
+    <t>In-house team costs for scaffolding erection and dismantling.</t>
   </si>
   <si>
-    <t>Interior fittings for customer specifications</t>
+    <t>Frequency correlates with ongoing project commencements.</t>
   </si>
   <si>
-    <t>Demands spike during fleet upgrades</t>
+    <t>Cartage and Transportation</t>
   </si>
   <si>
-    <t>HVAC Systems</t>
+    <t>Expenses related to the distribution of equipment across locations.</t>
   </si>
   <si>
-    <t>Climate control systems included in up-fits</t>
-  </si>
-  <si>
-    <t>Seasonal increases expected</t>
+    <t>Standard operational transport requirements align with regional deliveries.</t>
   </si>
   <si>
     <t>Unit Employees</t>
@@ -259,43 +256,43 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>CEO</t>
+    <t>Scaffolding Erector</t>
+  </si>
+  <si>
+    <t>hourly</t>
+  </si>
+  <si>
+    <t>Core to project execution, requiring specialized training</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Branch Manager</t>
   </si>
   <si>
     <t>salary</t>
   </si>
   <si>
-    <t>Role to be filled post-retirement of current CEO</t>
+    <t>Responsible for operational management at each branch location.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Safety Officer</t>
   </si>
   <si>
-    <t>Sales Manager</t>
+    <t>Ensures compliance with safety standards and training programs.</t>
   </si>
   <si>
-    <t>Critical for maintaining and expanding client relationships</t>
+    <t>Sales Executive</t>
   </si>
   <si>
-    <t>Electrician</t>
+    <t>Establish and maintain client relationships to foster sales.</t>
   </si>
   <si>
-    <t>hourly</t>
+    <t>Accounting and Finance</t>
   </si>
   <si>
-    <t>Essential for fulfilling vehicle modification orders</t>
-  </si>
-  <si>
-    <t>Production Worker</t>
-  </si>
-  <si>
-    <t>Perform critical task in vehicle assembly</t>
-  </si>
-  <si>
-    <t>Office Administrator</t>
-  </si>
-  <si>
-    <t>Support role with administrative functions</t>
+    <t>Manages financial records and reporting.</t>
   </si>
   <si>
     <t>Sources</t>
@@ -325,37 +322,37 @@
     <t>Notes/Assumptions</t>
   </si>
   <si>
-    <t>Office Rent</t>
+    <t>Facility Rent</t>
   </si>
   <si>
-    <t>Annual</t>
+    <t>Annually</t>
   </si>
   <si>
-    <t>Leases related property for operations</t>
+    <t>Costs for Phoenix and Tucson main facilities. Rent set by SELLLP for owned properties as indicated in PDF page 34.</t>
   </si>
   <si>
-    <t>Insurance</t>
+    <t>Operating Supplies</t>
   </si>
   <si>
-    <t>Insurance essential for operational risk management</t>
+    <t>Consumables and replacement parts necessary for daily operations.</t>
   </si>
   <si>
-    <t>IT Services</t>
+    <t>Utilities and Maintenance</t>
   </si>
   <si>
-    <t>Ongoing digital infrastructure maintenance</t>
+    <t>Maintaining facility operational standards.</t>
   </si>
   <si>
-    <t>Utilities</t>
+    <t>Insurance Costs</t>
   </si>
   <si>
-    <t>Yearly utility bills necessary for manufacturing facilities</t>
+    <t>Comprehensive coverage including liability and property insurance.</t>
   </si>
   <si>
-    <t>Advertising</t>
+    <t>Marketing and Advertising</t>
   </si>
   <si>
-    <t>Promotional activities to attract and retain clients</t>
+    <t>Promotional activities aimed at reinforcing brand presence.</t>
   </si>
   <si>
     <t>Capital Expenditures</t>
@@ -367,34 +364,34 @@
     <t>Purchase Date</t>
   </si>
   <si>
-    <t>Vehicle Customization Equipment</t>
+    <t>Scaffold and Fabrication Equipment</t>
   </si>
   <si>
-    <t>Equipment required for up-fitting niche vehicles as described in Page 9</t>
+    <t>Key equipment for both rental operations and in-house fabrication.</t>
   </si>
   <si>
-    <t>Facility Maintenance</t>
+    <t>Vehicle Upgrades</t>
   </si>
   <si>
-    <t>Maintaining and updating the facility leased, as indicated in Page 6</t>
+    <t>Regular updates for the company’s fleet used in operations.</t>
   </si>
   <si>
-    <t>IT Infrastructure</t>
+    <t>Office and IT Equipment</t>
   </si>
   <si>
-    <t>Upgrading IT systems to improve inventory and order processing efficiency</t>
+    <t>Upgrades to maintain efficient administrative and operational management.</t>
   </si>
   <si>
-    <t>Employee Training Facilities</t>
+    <t>Safety and Training Equipment</t>
   </si>
   <si>
-    <t>Establishment of facilities for training staff as part of growth</t>
+    <t>Essential for maintaining training capabilities, particularly SAIA accreditation.</t>
   </si>
   <si>
-    <t>Machinery for Production Line</t>
+    <t>Mast Climber and Hoist Equipment</t>
   </si>
   <si>
-    <t>Necessary for maintaining production as demand increases; Page 9 highlights the growth phase</t>
+    <t>Investment in high ROI equipment types as identified in the growth strategy.</t>
   </si>
   <si>
     <t>Depreciation Calculations</t>
@@ -511,31 +508,31 @@
     <t>Source Date</t>
   </si>
   <si>
-    <t>Spartan Upfit Services</t>
+    <t>BrandSafway</t>
+  </si>
+  <si>
+    <t>CIM - Page 14</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>Other Competitors</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>No Source</t>
+    <t>Industrial Services Group</t>
   </si>
   <si>
-    <t>2023-11-15</t>
+    <t>No source</t>
   </si>
   <si>
-    <t>ECO Vehicle Systems</t>
-  </si>
-  <si>
-    <t>Utilimaster</t>
-  </si>
-  <si>
-    <t>Auto Truck Group</t>
-  </si>
-  <si>
-    <t>Electric Custom Solutions</t>
-  </si>
-  <si>
-    <t>Industry Overview Page 10</t>
+    <t>Scaffold Supply Co.</t>
   </si>
   <si>
     <t>Median</t>
@@ -598,7 +595,7 @@
     <t>E11</t>
   </si>
   <si>
-    <t>E12</t>
+    <t>E21</t>
   </si>
   <si>
     <t>F13</t>
@@ -611,9 +608,6 @@
   </si>
   <si>
     <t>E20</t>
-  </si>
-  <si>
-    <t>E21</t>
   </si>
   <si>
     <t>E22</t>
@@ -1340,10 +1334,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>15000</v>
+        <v>150</v>
       </c>
       <c r="D8" s="8">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="E8" s="9">
         <f>C$8*D$8</f>
@@ -1356,11 +1350,11 @@
         <v>12</v>
       </c>
       <c r="I8" s="10">
-        <f>HYPERLINK("", "Page 9 Custom Up-fitting Description")</f>
+        <f>HYPERLINK("", "CIM - Page 25")</f>
         <v>0</v>
       </c>
       <c r="J8" s="10">
-        <f>HYPERLINK("", "Industry Overview Page 10")</f>
+        <f>HYPERLINK("", "CIM - Page 25")</f>
         <v>0</v>
       </c>
     </row>
@@ -1369,10 +1363,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="7">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="D9" s="8">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="E9" s="9">
         <f>C$9*D$9</f>
@@ -1385,11 +1379,11 @@
         <v>15</v>
       </c>
       <c r="I9" s="10">
-        <f>HYPERLINK("", "Page 9 Gold Division Overview")</f>
+        <f>HYPERLINK("", "CIM - Page 25")</f>
         <v>0</v>
       </c>
       <c r="J9" s="10">
-        <f>HYPERLINK("", "No Source")</f>
+        <f>HYPERLINK("", "CIM - Page 25")</f>
         <v>0</v>
       </c>
     </row>
@@ -1398,10 +1392,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D10" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E10" s="9">
         <f>C$10*D$10</f>
@@ -1414,11 +1408,11 @@
         <v>18</v>
       </c>
       <c r="I10" s="10">
-        <f>HYPERLINK("", "Page 9 Product Description")</f>
+        <f>HYPERLINK("", "No source")</f>
         <v>0</v>
       </c>
       <c r="J10" s="10">
-        <f>HYPERLINK("", "No Source")</f>
+        <f>HYPERLINK("", "No source")</f>
         <v>0</v>
       </c>
     </row>
@@ -1427,10 +1421,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="D11" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E11" s="9">
         <f>C$11*D$11</f>
@@ -1443,11 +1437,11 @@
         <v>21</v>
       </c>
       <c r="I11" s="10">
-        <f>HYPERLINK("", "No Source")</f>
+        <f>HYPERLINK("", "No source")</f>
         <v>0</v>
       </c>
       <c r="J11" s="10">
-        <f>HYPERLINK("", "Page 14 Consulting Notes")</f>
+        <f>HYPERLINK("", "No source")</f>
         <v>0</v>
       </c>
     </row>
@@ -1456,10 +1450,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="7">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D12" s="8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="9">
         <f>C$12*D$12</f>
@@ -1472,11 +1466,11 @@
         <v>24</v>
       </c>
       <c r="I12" s="10">
-        <f>HYPERLINK("", "No Source")</f>
+        <f>HYPERLINK("", "No source")</f>
         <v>0</v>
       </c>
       <c r="J12" s="10">
-        <f>HYPERLINK("", "No Source")</f>
+        <f>HYPERLINK("", "No source")</f>
         <v>0</v>
       </c>
     </row>
@@ -1538,10 +1532,10 @@
         <v>31</v>
       </c>
       <c r="C18" s="7">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8">
         <v>500</v>
-      </c>
-      <c r="D18" s="8">
-        <v>50</v>
       </c>
       <c r="E18" s="9">
         <f>C$18*D$18</f>
@@ -1554,11 +1548,11 @@
         <v>33</v>
       </c>
       <c r="I18" s="10">
-        <f>HYPERLINK("WWW.IBISWORLD.COM", "Industry Report Page 26")</f>
+        <f>HYPERLINK("", "CIM - Page 15")</f>
         <v>0</v>
       </c>
       <c r="J18" s="10">
-        <f>HYPERLINK("WWW.IBISWORLD.COM", "Industry Report Page 26")</f>
+        <f>HYPERLINK("", "CIM - Page 15")</f>
         <v>0</v>
       </c>
     </row>
@@ -1567,10 +1561,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="7">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="D19" s="8">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E19" s="9">
         <f>C$19*D$19</f>
@@ -1583,11 +1577,11 @@
         <v>36</v>
       </c>
       <c r="I19" s="10">
-        <f>HYPERLINK("", "No Source")</f>
+        <f>HYPERLINK("", "CIM - Page 15")</f>
         <v>0</v>
       </c>
       <c r="J19" s="10">
-        <f>HYPERLINK("", "No Source")</f>
+        <f>HYPERLINK("", "CIM - Page 15")</f>
         <v>0</v>
       </c>
     </row>
@@ -1596,10 +1590,10 @@
         <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>1200</v>
+        <v>25</v>
       </c>
       <c r="D20" s="8">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="E20" s="9">
         <f>C$20*D$20</f>
@@ -1612,69 +1606,69 @@
         <v>39</v>
       </c>
       <c r="I20" s="10">
-        <f>HYPERLINK("", "No Source")</f>
+        <f>HYPERLINK("", "No source")</f>
         <v>0</v>
       </c>
       <c r="J20" s="10">
-        <f>HYPERLINK("", "No Source")</f>
+        <f>HYPERLINK("", "No source")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7">
         <v>40</v>
       </c>
-      <c r="C21" s="7">
-        <v>700</v>
-      </c>
       <c r="D21" s="8">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E21" s="9">
         <f>C$21*D$21</f>
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="I21" s="10">
-        <f>HYPERLINK("", "No Source")</f>
+        <f>HYPERLINK("", "No source")</f>
         <v>0</v>
       </c>
       <c r="J21" s="10">
-        <f>HYPERLINK("", "No Source")</f>
+        <f>HYPERLINK("", "No source")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="D22" s="8">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="E22" s="9">
         <f>C$22*D$22</f>
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="I22" s="10">
-        <f>HYPERLINK("", "No Source")</f>
+        <f>HYPERLINK("", "No source")</f>
         <v>0</v>
       </c>
       <c r="J22" s="10">
-        <f>HYPERLINK("", "No Source")</f>
+        <f>HYPERLINK("", "No source")</f>
         <v>0</v>
       </c>
     </row>
@@ -1694,7 +1688,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G53"/>
+  <dimension ref="B2:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1707,7 +1701,7 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="5" customHeight="1">
@@ -1720,24 +1714,24 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -1749,12 +1743,12 @@
         <v>5</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
@@ -1766,12 +1760,12 @@
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
@@ -1783,12 +1777,12 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
@@ -1800,32 +1794,32 @@
         <v>5</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E10" s="6">
         <v>5</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="6">
         <v>13</v>
@@ -1834,12 +1828,12 @@
         <v>6</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -1851,12 +1845,12 @@
         <v>5</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>34</v>
@@ -1868,12 +1862,12 @@
         <v>5</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>37</v>
@@ -1885,38 +1879,38 @@
         <v>5</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="6">
         <v>5</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="D16" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>197</v>
@@ -1924,16 +1918,16 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="6" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>198</v>
       </c>
       <c r="D17" s="6">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E17" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>199</v>
@@ -1941,7 +1935,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>200</v>
@@ -1953,38 +1947,38 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="6">
+        <v>14</v>
+      </c>
+      <c r="E19" s="6">
+        <v>23</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="D19" s="6">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D20" s="6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>204</v>
@@ -1992,16 +1986,16 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="D21" s="6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E21" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>206</v>
@@ -2009,13 +2003,13 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>207</v>
       </c>
       <c r="D22" s="6">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E22" s="6">
         <v>21</v>
@@ -2026,33 +2020,33 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="D23" s="6">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E23" s="6">
         <v>21</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="D24" s="6">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E24" s="6">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>211</v>
@@ -2060,203 +2054,203 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="6">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" s="6">
-        <v>6</v>
-      </c>
-      <c r="E25" s="6">
-        <v>3</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D26" s="6">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E26" s="6">
         <v>5</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D27" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E27" s="6">
         <v>5</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="D28" s="6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E28" s="6">
         <v>5</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="D29" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E29" s="6">
         <v>5</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D30" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E30" s="6">
         <v>5</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>137</v>
       </c>
       <c r="D31" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E31" s="6">
         <v>5</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>138</v>
       </c>
       <c r="D32" s="6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E32" s="6">
         <v>5</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>139</v>
       </c>
       <c r="D33" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33" s="6">
         <v>5</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D34" s="6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E34" s="6">
         <v>5</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D35" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E35" s="6">
         <v>5</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="D36" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E36" s="6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>223</v>
@@ -2264,50 +2258,50 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="6" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="D37" s="6">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E37" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D38" s="6">
         <v>6</v>
       </c>
       <c r="E38" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="D39" s="6">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E39" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>228</v>
@@ -2315,13 +2309,13 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D40" s="6">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E40" s="6">
         <v>9</v>
@@ -2332,13 +2326,13 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>231</v>
       </c>
       <c r="D41" s="6">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E41" s="6">
         <v>9</v>
@@ -2349,13 +2343,13 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>233</v>
       </c>
       <c r="D42" s="6">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E42" s="6">
         <v>9</v>
@@ -2366,13 +2360,13 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>235</v>
       </c>
       <c r="D43" s="6">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E43" s="6">
         <v>9</v>
@@ -2383,13 +2377,13 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>237</v>
       </c>
       <c r="D44" s="6">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E44" s="6">
         <v>9</v>
@@ -2400,13 +2394,13 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D45" s="6">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E45" s="6">
         <v>9</v>
@@ -2417,13 +2411,13 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>241</v>
       </c>
       <c r="D46" s="6">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E46" s="6">
         <v>9</v>
@@ -2434,13 +2428,13 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>243</v>
       </c>
       <c r="D47" s="6">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E47" s="6">
         <v>9</v>
@@ -2451,13 +2445,13 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>245</v>
       </c>
       <c r="D48" s="6">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E48" s="6">
         <v>9</v>
@@ -2468,13 +2462,13 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>247</v>
       </c>
       <c r="D49" s="6">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E49" s="6">
         <v>9</v>
@@ -2485,36 +2479,36 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="6" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="D50" s="6">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="E50" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="D51" s="6">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E51" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="2:6">
@@ -2522,33 +2516,16 @@
         <v>251</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="D52" s="6">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E52" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="6">
-        <v>6</v>
-      </c>
-      <c r="E53" s="6">
-        <v>3</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2574,7 +2551,7 @@
   <sheetData>
     <row r="2" spans="2:142">
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:142" ht="5" customHeight="1">
@@ -2590,425 +2567,425 @@
     </row>
     <row r="6" spans="2:142">
       <c r="K6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:142">
       <c r="K7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="S7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="T7" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="W7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="AJ7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Y7" s="6" t="s">
+      <c r="AK7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Z7" s="6" t="s">
+      <c r="AL7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AA7" s="6" t="s">
+      <c r="AM7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AB7" s="6" t="s">
+      <c r="AN7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AC7" s="6" t="s">
+      <c r="AO7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AP7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AE7" s="6" t="s">
+      <c r="AQ7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AR7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AG7" s="6" t="s">
+      <c r="AS7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AH7" s="6" t="s">
+      <c r="AT7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="6" t="s">
+      <c r="AU7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="6" t="s">
+      <c r="AV7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AK7" s="6" t="s">
+      <c r="AW7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AL7" s="6" t="s">
+      <c r="AX7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AM7" s="6" t="s">
+      <c r="AY7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AN7" s="6" t="s">
+      <c r="AZ7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AO7" s="6" t="s">
+      <c r="BA7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AP7" s="6" t="s">
+      <c r="BB7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AQ7" s="6" t="s">
+      <c r="BC7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AR7" s="6" t="s">
+      <c r="BD7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AS7" s="6" t="s">
+      <c r="BE7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AT7" s="6" t="s">
+      <c r="BF7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AU7" s="6" t="s">
+      <c r="BG7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AV7" s="6" t="s">
+      <c r="BH7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AW7" s="6" t="s">
+      <c r="BI7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AX7" s="6" t="s">
+      <c r="BJ7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AY7" s="6" t="s">
+      <c r="BK7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AZ7" s="6" t="s">
+      <c r="BL7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA7" s="6" t="s">
+      <c r="BM7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BB7" s="6" t="s">
+      <c r="BN7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BC7" s="6" t="s">
+      <c r="BO7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BD7" s="6" t="s">
+      <c r="BP7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BE7" s="6" t="s">
+      <c r="BQ7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BF7" s="6" t="s">
+      <c r="BR7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BG7" s="6" t="s">
+      <c r="BS7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BH7" s="6" t="s">
+      <c r="BT7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BI7" s="6" t="s">
+      <c r="BU7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BJ7" s="6" t="s">
+      <c r="BV7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BK7" s="6" t="s">
+      <c r="BW7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BL7" s="6" t="s">
+      <c r="BX7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BM7" s="6" t="s">
+      <c r="BY7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BN7" s="6" t="s">
+      <c r="BZ7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BO7" s="6" t="s">
+      <c r="CA7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BP7" s="6" t="s">
+      <c r="CB7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BQ7" s="6" t="s">
+      <c r="CC7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BR7" s="6" t="s">
+      <c r="CD7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BS7" s="6" t="s">
+      <c r="CE7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BT7" s="6" t="s">
+      <c r="CF7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BU7" s="6" t="s">
+      <c r="CG7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BV7" s="6" t="s">
+      <c r="CH7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BW7" s="6" t="s">
+      <c r="CI7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BX7" s="6" t="s">
+      <c r="CJ7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BY7" s="6" t="s">
+      <c r="CK7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BZ7" s="6" t="s">
+      <c r="CL7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="CA7" s="6" t="s">
+      <c r="CM7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="CB7" s="6" t="s">
+      <c r="CN7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="CC7" s="6" t="s">
+      <c r="CO7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="CD7" s="6" t="s">
+      <c r="CP7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="CE7" s="6" t="s">
+      <c r="CQ7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CF7" s="6" t="s">
+      <c r="CR7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CG7" s="6" t="s">
+      <c r="CS7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CH7" s="6" t="s">
+      <c r="CT7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CI7" s="6" t="s">
+      <c r="CU7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CJ7" s="6" t="s">
+      <c r="CV7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CK7" s="6" t="s">
+      <c r="CW7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CL7" s="6" t="s">
+      <c r="CX7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CM7" s="6" t="s">
+      <c r="CY7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CN7" s="6" t="s">
+      <c r="CZ7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CO7" s="6" t="s">
+      <c r="DA7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CP7" s="6" t="s">
+      <c r="DB7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CQ7" s="6" t="s">
+      <c r="DC7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CR7" s="6" t="s">
+      <c r="DD7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CS7" s="6" t="s">
+      <c r="DE7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CT7" s="6" t="s">
+      <c r="DF7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CU7" s="6" t="s">
+      <c r="DG7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CV7" s="6" t="s">
+      <c r="DH7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CW7" s="6" t="s">
+      <c r="DI7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CX7" s="6" t="s">
+      <c r="DJ7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CY7" s="6" t="s">
+      <c r="DK7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CZ7" s="6" t="s">
+      <c r="DL7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="DA7" s="6" t="s">
+      <c r="DM7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="DB7" s="6" t="s">
+      <c r="DN7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="DC7" s="6" t="s">
+      <c r="DO7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DD7" s="6" t="s">
+      <c r="DP7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DE7" s="6" t="s">
+      <c r="DQ7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DF7" s="6" t="s">
+      <c r="DR7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DG7" s="6" t="s">
+      <c r="DS7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DH7" s="6" t="s">
+      <c r="DT7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DI7" s="6" t="s">
+      <c r="DU7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DJ7" s="6" t="s">
+      <c r="DV7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DK7" s="6" t="s">
+      <c r="DW7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DL7" s="6" t="s">
+      <c r="DX7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DM7" s="6" t="s">
+      <c r="DY7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DN7" s="6" t="s">
+      <c r="DZ7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DO7" s="6" t="s">
+      <c r="EA7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DP7" s="6" t="s">
+      <c r="EB7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DQ7" s="6" t="s">
+      <c r="EC7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DR7" s="6" t="s">
+      <c r="ED7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DS7" s="6" t="s">
+      <c r="EE7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DT7" s="6" t="s">
+      <c r="EF7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DU7" s="6" t="s">
+      <c r="EG7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DV7" s="6" t="s">
+      <c r="EH7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DW7" s="6" t="s">
+      <c r="EI7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DX7" s="6" t="s">
+      <c r="EJ7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DY7" s="6" t="s">
+      <c r="EK7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DZ7" s="6" t="s">
+      <c r="EL7" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="EA7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EB7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EC7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="ED7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EE7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EF7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EG7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EH7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EI7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EJ7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EK7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EL7" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:142">
       <c r="B8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
@@ -3021,378 +2998,378 @@
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="W8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="X8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="X8" s="12" t="s">
+      <c r="Y8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Y8" s="12" t="s">
+      <c r="Z8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z8" s="12" t="s">
+      <c r="AA8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AA8" s="12" t="s">
+      <c r="AB8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AB8" s="12" t="s">
+      <c r="AC8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AC8" s="12" t="s">
+      <c r="AD8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AD8" s="12" t="s">
+      <c r="AE8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AE8" s="12" t="s">
+      <c r="AF8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AF8" s="12" t="s">
+      <c r="AG8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" s="12" t="s">
+      <c r="AH8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AH8" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="AI8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AJ8" s="12" t="s">
+      <c r="AK8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AK8" s="12" t="s">
+      <c r="AL8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AL8" s="12" t="s">
+      <c r="AM8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="12" t="s">
+      <c r="AN8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AN8" s="12" t="s">
+      <c r="AO8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AO8" s="12" t="s">
+      <c r="AP8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AP8" s="12" t="s">
+      <c r="AQ8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AQ8" s="12" t="s">
+      <c r="AR8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AR8" s="12" t="s">
+      <c r="AS8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AS8" s="12" t="s">
+      <c r="AT8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AT8" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="AU8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AV8" s="12" t="s">
+      <c r="AW8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AW8" s="12" t="s">
+      <c r="AX8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AX8" s="12" t="s">
+      <c r="AY8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AY8" s="12" t="s">
+      <c r="AZ8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AZ8" s="12" t="s">
+      <c r="BA8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BA8" s="12" t="s">
+      <c r="BB8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BB8" s="12" t="s">
+      <c r="BC8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BC8" s="12" t="s">
+      <c r="BD8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BD8" s="12" t="s">
+      <c r="BE8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BE8" s="12" t="s">
+      <c r="BF8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BF8" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="BG8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BH8" s="12" t="s">
+      <c r="BI8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BI8" s="12" t="s">
+      <c r="BJ8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BJ8" s="12" t="s">
+      <c r="BK8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BK8" s="12" t="s">
+      <c r="BL8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BL8" s="12" t="s">
+      <c r="BM8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BM8" s="12" t="s">
+      <c r="BN8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BN8" s="12" t="s">
+      <c r="BO8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BO8" s="12" t="s">
+      <c r="BP8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BP8" s="12" t="s">
+      <c r="BQ8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BQ8" s="12" t="s">
+      <c r="BR8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BR8" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="BS8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BT8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BT8" s="12" t="s">
+      <c r="BU8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BU8" s="12" t="s">
+      <c r="BV8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BV8" s="12" t="s">
+      <c r="BW8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BW8" s="12" t="s">
+      <c r="BX8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BX8" s="12" t="s">
+      <c r="BY8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BY8" s="12" t="s">
+      <c r="BZ8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BZ8" s="12" t="s">
+      <c r="CA8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="CA8" s="12" t="s">
+      <c r="CB8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="CB8" s="12" t="s">
+      <c r="CC8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CC8" s="12" t="s">
+      <c r="CD8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="CD8" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="CE8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CF8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="CF8" s="12" t="s">
+      <c r="CG8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="CG8" s="12" t="s">
+      <c r="CH8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="CH8" s="12" t="s">
+      <c r="CI8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="CI8" s="12" t="s">
+      <c r="CJ8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="CJ8" s="12" t="s">
+      <c r="CK8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="CK8" s="12" t="s">
+      <c r="CL8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CL8" s="12" t="s">
+      <c r="CM8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="CM8" s="12" t="s">
+      <c r="CN8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="CN8" s="12" t="s">
+      <c r="CO8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CO8" s="12" t="s">
+      <c r="CP8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="CP8" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="CQ8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CR8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="CR8" s="12" t="s">
+      <c r="CS8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="CS8" s="12" t="s">
+      <c r="CT8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="CT8" s="12" t="s">
+      <c r="CU8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="CU8" s="12" t="s">
+      <c r="CV8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="CV8" s="12" t="s">
+      <c r="CW8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="CW8" s="12" t="s">
+      <c r="CX8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CX8" s="12" t="s">
+      <c r="CY8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="CY8" s="12" t="s">
+      <c r="CZ8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="CZ8" s="12" t="s">
+      <c r="DA8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="DA8" s="12" t="s">
+      <c r="DB8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="DB8" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="DC8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="DD8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="DD8" s="12" t="s">
+      <c r="DE8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="DE8" s="12" t="s">
+      <c r="DF8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="DF8" s="12" t="s">
+      <c r="DG8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="DG8" s="12" t="s">
+      <c r="DH8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="DH8" s="12" t="s">
+      <c r="DI8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="DI8" s="12" t="s">
+      <c r="DJ8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="DJ8" s="12" t="s">
+      <c r="DK8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="DK8" s="12" t="s">
+      <c r="DL8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="DL8" s="12" t="s">
+      <c r="DM8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="DM8" s="12" t="s">
+      <c r="DN8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="DN8" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="DO8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="DP8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="DP8" s="12" t="s">
+      <c r="DQ8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="DQ8" s="12" t="s">
+      <c r="DR8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="DR8" s="12" t="s">
+      <c r="DS8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="DS8" s="12" t="s">
+      <c r="DT8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="DT8" s="12" t="s">
+      <c r="DU8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="DU8" s="12" t="s">
+      <c r="DV8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="DV8" s="12" t="s">
+      <c r="DW8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="DW8" s="12" t="s">
+      <c r="DX8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="DX8" s="12" t="s">
+      <c r="DY8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="DY8" s="12" t="s">
+      <c r="DZ8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="DZ8" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="EA8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="EB8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="EB8" s="12" t="s">
+      <c r="EC8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="EC8" s="12" t="s">
+      <c r="ED8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="ED8" s="12" t="s">
+      <c r="EE8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="EE8" s="12" t="s">
+      <c r="EF8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="EF8" s="12" t="s">
+      <c r="EG8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="EG8" s="12" t="s">
+      <c r="EH8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="EH8" s="12" t="s">
+      <c r="EI8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="EI8" s="12" t="s">
+      <c r="EJ8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="EJ8" s="12" t="s">
+      <c r="EK8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="EK8" s="12" t="s">
+      <c r="EL8" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="EL8" s="12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:142">
       <c r="B9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="8">
+        <v>50</v>
+      </c>
+      <c r="D9" s="14">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>130000</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="F9" s="8">
         <v>160</v>
@@ -3402,10 +3379,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="K9" s="9">
         <f>sumif(W7:EL7, K7, W9:EL9)</f>
@@ -3930,16 +3907,16 @@
     </row>
     <row r="10" spans="2:142">
       <c r="B10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>90000</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="F10" s="8">
         <v>160</v>
@@ -3952,7 +3929,7 @@
         <v>83</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="9">
         <f>sumif(W7:EL7, K7, W10:EL10)</f>
@@ -4480,13 +4457,13 @@
         <v>84</v>
       </c>
       <c r="C11" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D11" s="14">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F11" s="8">
         <v>160</v>
@@ -4496,10 +4473,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="9">
         <f>sumif(W7:EL7, K7, W11:EL11)</f>
@@ -5024,16 +5001,16 @@
     </row>
     <row r="12" spans="2:142">
       <c r="B12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="8">
-        <v>15</v>
-      </c>
-      <c r="D12" s="14">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4500</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8">
         <v>160</v>
@@ -5043,10 +5020,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="9">
         <f>sumif(W7:EL7, K7, W12:EL12)</f>
@@ -5571,16 +5548,16 @@
     </row>
     <row r="13" spans="2:142">
       <c r="B13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>50000</v>
+        <v>4000</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="8">
         <v>160</v>
@@ -5590,10 +5567,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="9">
         <f>sumif(W7:EL7, K7, W13:EL13)</f>
@@ -6640,18 +6617,18 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="10" customHeight="1">
       <c r="B18" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="17"/>
     </row>
     <row r="19" spans="2:3" ht="10" customHeight="1">
       <c r="B19" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="17"/>
     </row>
@@ -6663,13 +6640,13 @@
     </row>
     <row r="21" spans="2:3" ht="10" customHeight="1">
       <c r="B21" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="17"/>
     </row>
     <row r="22" spans="2:3" ht="10" customHeight="1">
       <c r="B22" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="17"/>
     </row>
@@ -6698,7 +6675,7 @@
   <sheetData>
     <row r="2" spans="2:140">
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:140" ht="5" customHeight="1">
@@ -6714,18 +6691,18 @@
     </row>
     <row r="5" spans="2:140">
       <c r="I5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:140">
       <c r="B6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" s="18">
-        <v>40909</v>
+        <v>42736</v>
       </c>
       <c r="J6" s="18">
         <f>edate(I6,12)</f>
@@ -6764,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="18">
-        <v>40909</v>
+        <v>42736</v>
       </c>
       <c r="V6" s="18">
         <f>edate(U6,1)</f>
@@ -7245,16 +7222,16 @@
     </row>
     <row r="7" spans="2:140">
       <c r="B7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -7267,381 +7244,381 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="U7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="W7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="X7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="Y7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Y7" s="12" t="s">
+      <c r="Z7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="AA7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="AB7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AB7" s="12" t="s">
+      <c r="AC7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AC7" s="12" t="s">
+      <c r="AD7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="12" t="s">
+      <c r="AE7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AE7" s="12" t="s">
+      <c r="AF7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AF7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="AG7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AI7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AI7" s="12" t="s">
+      <c r="AJ7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AJ7" s="12" t="s">
+      <c r="AK7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="AL7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AL7" s="12" t="s">
+      <c r="AM7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AM7" s="12" t="s">
+      <c r="AN7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AN7" s="12" t="s">
+      <c r="AO7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AO7" s="12" t="s">
+      <c r="AP7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AP7" s="12" t="s">
+      <c r="AQ7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AQ7" s="12" t="s">
+      <c r="AR7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AR7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="AS7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AT7" s="12" t="s">
+      <c r="AU7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AU7" s="12" t="s">
+      <c r="AV7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AV7" s="12" t="s">
+      <c r="AW7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="12" t="s">
+      <c r="AX7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AX7" s="12" t="s">
+      <c r="AY7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AY7" s="12" t="s">
+      <c r="AZ7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AZ7" s="12" t="s">
+      <c r="BA7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BA7" s="12" t="s">
+      <c r="BB7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BB7" s="12" t="s">
+      <c r="BC7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BC7" s="12" t="s">
+      <c r="BD7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BD7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="BE7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BF7" s="12" t="s">
+      <c r="BG7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BG7" s="12" t="s">
+      <c r="BH7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BH7" s="12" t="s">
+      <c r="BI7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BI7" s="12" t="s">
+      <c r="BJ7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BJ7" s="12" t="s">
+      <c r="BK7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BK7" s="12" t="s">
+      <c r="BL7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BL7" s="12" t="s">
+      <c r="BM7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BM7" s="12" t="s">
+      <c r="BN7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BN7" s="12" t="s">
+      <c r="BO7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BO7" s="12" t="s">
+      <c r="BP7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BP7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="BQ7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BR7" s="12" t="s">
+      <c r="BS7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BS7" s="12" t="s">
+      <c r="BT7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BT7" s="12" t="s">
+      <c r="BU7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BU7" s="12" t="s">
+      <c r="BV7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BV7" s="12" t="s">
+      <c r="BW7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BW7" s="12" t="s">
+      <c r="BX7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BX7" s="12" t="s">
+      <c r="BY7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BY7" s="12" t="s">
+      <c r="BZ7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BZ7" s="12" t="s">
+      <c r="CA7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CA7" s="12" t="s">
+      <c r="CB7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="CB7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="CC7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CD7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="CD7" s="12" t="s">
+      <c r="CE7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="CE7" s="12" t="s">
+      <c r="CF7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="CF7" s="12" t="s">
+      <c r="CG7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="CG7" s="12" t="s">
+      <c r="CH7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="CH7" s="12" t="s">
+      <c r="CI7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="CI7" s="12" t="s">
+      <c r="CJ7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CJ7" s="12" t="s">
+      <c r="CK7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="CK7" s="12" t="s">
+      <c r="CL7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="CL7" s="12" t="s">
+      <c r="CM7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CM7" s="12" t="s">
+      <c r="CN7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="CN7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="CO7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CP7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="CP7" s="12" t="s">
+      <c r="CQ7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="CQ7" s="12" t="s">
+      <c r="CR7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="CR7" s="12" t="s">
+      <c r="CS7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="CS7" s="12" t="s">
+      <c r="CT7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="CT7" s="12" t="s">
+      <c r="CU7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="CU7" s="12" t="s">
+      <c r="CV7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CV7" s="12" t="s">
+      <c r="CW7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="CW7" s="12" t="s">
+      <c r="CX7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="CX7" s="12" t="s">
+      <c r="CY7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CY7" s="12" t="s">
+      <c r="CZ7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="CZ7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="DA7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="DB7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="DB7" s="12" t="s">
+      <c r="DC7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="DC7" s="12" t="s">
+      <c r="DD7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="DD7" s="12" t="s">
+      <c r="DE7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="DE7" s="12" t="s">
+      <c r="DF7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="DF7" s="12" t="s">
+      <c r="DG7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="DG7" s="12" t="s">
+      <c r="DH7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="DH7" s="12" t="s">
+      <c r="DI7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="DI7" s="12" t="s">
+      <c r="DJ7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="DJ7" s="12" t="s">
+      <c r="DK7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="DK7" s="12" t="s">
+      <c r="DL7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="DL7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="DM7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="DN7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="DN7" s="12" t="s">
+      <c r="DO7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="DO7" s="12" t="s">
+      <c r="DP7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="DP7" s="12" t="s">
+      <c r="DQ7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="DQ7" s="12" t="s">
+      <c r="DR7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="DR7" s="12" t="s">
+      <c r="DS7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="DS7" s="12" t="s">
+      <c r="DT7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="DT7" s="12" t="s">
+      <c r="DU7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="DU7" s="12" t="s">
+      <c r="DV7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="DV7" s="12" t="s">
+      <c r="DW7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="DW7" s="12" t="s">
+      <c r="DX7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="DX7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="DY7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="DZ7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="DZ7" s="12" t="s">
+      <c r="EA7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="EA7" s="12" t="s">
+      <c r="EB7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="EB7" s="12" t="s">
+      <c r="EC7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="EC7" s="12" t="s">
+      <c r="ED7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="ED7" s="12" t="s">
+      <c r="EE7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="EE7" s="12" t="s">
+      <c r="EF7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="EF7" s="12" t="s">
+      <c r="EG7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="EG7" s="12" t="s">
+      <c r="EH7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="EH7" s="12" t="s">
+      <c r="EI7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="EI7" s="12" t="s">
+      <c r="EJ7" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="EJ7" s="12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:140">
       <c r="B8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="7">
+        <v>360000</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="7">
-        <v>95512</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8" s="9">
         <f>SUMIFS($U$8:$EK$8, $U$6:$EK$6, "&gt;=" &amp; DATE(YEAR(I6),1,1), $U$6:$EK$6, "&lt;=" &amp; DATE(YEAR(I6),12,31))</f>
@@ -8166,19 +8143,19 @@
     </row>
     <row r="9" spans="2:140">
       <c r="B9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="7">
+        <v>150000</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="7">
-        <v>34604</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="9">
         <f>SUMIFS($U$9:$EK$9, $U$6:$EK$6, "&gt;=" &amp; DATE(YEAR(I6),1,1), $U$6:$EK$6, "&lt;=" &amp; DATE(YEAR(I6),12,31))</f>
@@ -8703,19 +8680,19 @@
     </row>
     <row r="10" spans="2:140">
       <c r="B10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="7">
+        <v>120000</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="7">
-        <v>25134</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="9">
         <f>SUMIFS($U$10:$EK$10, $U$6:$EK$6, "&gt;=" &amp; DATE(YEAR(I6),1,1), $U$6:$EK$6, "&lt;=" &amp; DATE(YEAR(I6),12,31))</f>
@@ -9240,19 +9217,19 @@
     </row>
     <row r="11" spans="2:140">
       <c r="B11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>463977</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="7">
-        <v>9784</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="9">
         <f>SUMIFS($U$11:$EK$11, $U$6:$EK$6, "&gt;=" &amp; DATE(YEAR(I6),1,1), $U$6:$EK$6, "&lt;=" &amp; DATE(YEAR(I6),12,31))</f>
@@ -9777,19 +9754,19 @@
     </row>
     <row r="12" spans="2:140">
       <c r="B12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>50000</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="7">
-        <v>18995</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12" s="9">
         <f>SUMIFS($U$12:$EK$12, $U$6:$EK$6, "&gt;=" &amp; DATE(YEAR(I6),1,1), $U$6:$EK$6, "&lt;=" &amp; DATE(YEAR(I6),12,31))</f>
@@ -10836,44 +10813,44 @@
     </row>
     <row r="15" spans="2:140">
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:140">
       <c r="B16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="D16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="F16" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:140">
       <c r="B17" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="7">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="D17" s="8">
         <v>10</v>
       </c>
       <c r="E17" s="19">
-        <v>45292</v>
+        <v>44927</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="9">
         <f>SUMIFS($U$17:$EK$17, $U$6:$EK$6, "&gt;=" &amp; DATE(YEAR(I6),1,1), $U$6:$EK$6, "&lt;=" &amp; DATE(YEAR(I6),12,31))</f>
@@ -11398,22 +11375,22 @@
     </row>
     <row r="18" spans="2:140">
       <c r="B18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="7">
+        <v>70000</v>
+      </c>
+      <c r="D18" s="8">
+        <v>5</v>
+      </c>
+      <c r="E18" s="19">
+        <v>44927</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="7">
-        <v>200000</v>
-      </c>
-      <c r="D18" s="8">
-        <v>20</v>
-      </c>
-      <c r="E18" s="19">
-        <v>45292</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="G18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="9">
         <f>SUMIFS($U$18:$EK$18, $U$6:$EK$6, "&gt;=" &amp; DATE(YEAR(I6),1,1), $U$6:$EK$6, "&lt;=" &amp; DATE(YEAR(I6),12,31))</f>
@@ -11938,22 +11915,22 @@
     </row>
     <row r="19" spans="2:140">
       <c r="B19" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="7">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D19" s="8">
         <v>5</v>
       </c>
       <c r="E19" s="19">
-        <v>45292</v>
+        <v>44927</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="9">
         <f>SUMIFS($U$19:$EK$19, $U$6:$EK$6, "&gt;=" &amp; DATE(YEAR(I6),1,1), $U$6:$EK$6, "&lt;=" &amp; DATE(YEAR(I6),12,31))</f>
@@ -12478,22 +12455,22 @@
     </row>
     <row r="20" spans="2:140">
       <c r="B20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19">
+        <v>44927</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="7">
-        <v>50000</v>
-      </c>
-      <c r="D20" s="8">
-        <v>10</v>
-      </c>
-      <c r="E20" s="19">
-        <v>45292</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="G20" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="9">
         <f>SUMIFS($U$20:$EK$20, $U$6:$EK$6, "&gt;=" &amp; DATE(YEAR(I6),1,1), $U$6:$EK$6, "&lt;=" &amp; DATE(YEAR(I6),12,31))</f>
@@ -13018,22 +12995,22 @@
     </row>
     <row r="21" spans="2:140">
       <c r="B21" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="7">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="D21" s="8">
         <v>8</v>
       </c>
       <c r="E21" s="19">
-        <v>45292</v>
+        <v>44927</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="9">
         <f>SUMIFS($U$21:$EK$21, $U$6:$EK$6, "&gt;=" &amp; DATE(YEAR(I6),1,1), $U$6:$EK$6, "&lt;=" &amp; DATE(YEAR(I6),12,31))</f>
@@ -14080,29 +14057,29 @@
     </row>
     <row r="24" spans="2:140">
       <c r="B24" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:140">
       <c r="B25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="D25" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:140">
       <c r="B26" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="7">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="D26" s="8">
         <v>10</v>
@@ -14634,13 +14611,13 @@
     </row>
     <row r="27" spans="2:140">
       <c r="B27" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="7">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="D27" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E27" s="9">
         <f>C27/(D27*12)</f>
@@ -15169,10 +15146,10 @@
     </row>
     <row r="28" spans="2:140">
       <c r="B28" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="7">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D28" s="8">
         <v>5</v>
@@ -15704,13 +15681,13 @@
     </row>
     <row r="29" spans="2:140">
       <c r="B29" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="7">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="D29" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E29" s="9">
         <f>C29/(D29*12)</f>
@@ -16239,10 +16216,10 @@
     </row>
     <row r="30" spans="2:140">
       <c r="B30" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C30" s="7">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="D30" s="8">
         <v>8</v>
@@ -17296,66 +17273,66 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="10" customHeight="1">
       <c r="B35" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="17"/>
     </row>
     <row r="36" spans="2:3" ht="10" customHeight="1">
       <c r="B36" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="17"/>
     </row>
     <row r="37" spans="2:3" ht="10" customHeight="1">
       <c r="B37" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="17"/>
     </row>
     <row r="38" spans="2:3" ht="10" customHeight="1">
       <c r="B38" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="17"/>
     </row>
     <row r="39" spans="2:3" ht="10" customHeight="1">
       <c r="B39" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="2:3" ht="10" customHeight="1">
       <c r="B40" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="17"/>
     </row>
     <row r="41" spans="2:3" ht="10" customHeight="1">
       <c r="B41" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="17"/>
     </row>
     <row r="42" spans="2:3" ht="10" customHeight="1">
       <c r="B42" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="17"/>
     </row>
     <row r="43" spans="2:3" ht="10" customHeight="1">
       <c r="B43" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" s="17"/>
     </row>
     <row r="44" spans="2:3" ht="10" customHeight="1">
       <c r="B44" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="17"/>
     </row>
@@ -17379,7 +17356,7 @@
   <sheetData>
     <row r="2" spans="2:135">
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:135" ht="5" customHeight="1">
@@ -17518,15 +17495,15 @@
     </row>
     <row r="5" spans="2:135">
       <c r="E5" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:135">
       <c r="E6" s="18">
-        <v>40909</v>
+        <v>42736</v>
       </c>
       <c r="F6" s="18">
         <f>edate(E6,12)</f>
@@ -17565,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="18">
-        <v>40909</v>
+        <v>42736</v>
       </c>
       <c r="Q6" s="18">
         <f>edate(P6,1)</f>
@@ -18046,367 +18023,367 @@
     </row>
     <row r="7" spans="2:135">
       <c r="B7" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="R7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="S7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="U7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="V7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="W7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="X7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="Y7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="12" t="s">
+      <c r="Z7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="AA7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="AB7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AC7" s="12" t="s">
+      <c r="AD7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AD7" s="12" t="s">
+      <c r="AE7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" s="12" t="s">
+      <c r="AF7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AG7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AH7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AI7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AI7" s="12" t="s">
+      <c r="AJ7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AJ7" s="12" t="s">
+      <c r="AK7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="AL7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AL7" s="12" t="s">
+      <c r="AM7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AM7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="AN7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AO7" s="12" t="s">
+      <c r="AP7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AP7" s="12" t="s">
+      <c r="AQ7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AQ7" s="12" t="s">
+      <c r="AR7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AR7" s="12" t="s">
+      <c r="AS7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AS7" s="12" t="s">
+      <c r="AT7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AT7" s="12" t="s">
+      <c r="AU7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AU7" s="12" t="s">
+      <c r="AV7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AV7" s="12" t="s">
+      <c r="AW7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AW7" s="12" t="s">
+      <c r="AX7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AX7" s="12" t="s">
+      <c r="AY7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AY7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="AZ7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BA7" s="12" t="s">
+      <c r="BB7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BB7" s="12" t="s">
+      <c r="BC7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BC7" s="12" t="s">
+      <c r="BD7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BD7" s="12" t="s">
+      <c r="BE7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BE7" s="12" t="s">
+      <c r="BF7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BF7" s="12" t="s">
+      <c r="BG7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BG7" s="12" t="s">
+      <c r="BH7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BH7" s="12" t="s">
+      <c r="BI7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BI7" s="12" t="s">
+      <c r="BJ7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BJ7" s="12" t="s">
+      <c r="BK7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BK7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="BL7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BM7" s="12" t="s">
+      <c r="BN7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BN7" s="12" t="s">
+      <c r="BO7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BO7" s="12" t="s">
+      <c r="BP7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BP7" s="12" t="s">
+      <c r="BQ7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BQ7" s="12" t="s">
+      <c r="BR7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BR7" s="12" t="s">
+      <c r="BS7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BS7" s="12" t="s">
+      <c r="BT7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BT7" s="12" t="s">
+      <c r="BU7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BU7" s="12" t="s">
+      <c r="BV7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BV7" s="12" t="s">
+      <c r="BW7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BW7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="BX7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BY7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BY7" s="12" t="s">
+      <c r="BZ7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BZ7" s="12" t="s">
+      <c r="CA7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="CA7" s="12" t="s">
+      <c r="CB7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="CB7" s="12" t="s">
+      <c r="CC7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="CC7" s="12" t="s">
+      <c r="CD7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="CD7" s="12" t="s">
+      <c r="CE7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CE7" s="12" t="s">
+      <c r="CF7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="CF7" s="12" t="s">
+      <c r="CG7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="CG7" s="12" t="s">
+      <c r="CH7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CH7" s="12" t="s">
+      <c r="CI7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="CI7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="CJ7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CK7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="CK7" s="12" t="s">
+      <c r="CL7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="CL7" s="12" t="s">
+      <c r="CM7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="CM7" s="12" t="s">
+      <c r="CN7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="CN7" s="12" t="s">
+      <c r="CO7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="CO7" s="12" t="s">
+      <c r="CP7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="CP7" s="12" t="s">
+      <c r="CQ7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CQ7" s="12" t="s">
+      <c r="CR7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="CR7" s="12" t="s">
+      <c r="CS7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="CS7" s="12" t="s">
+      <c r="CT7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CT7" s="12" t="s">
+      <c r="CU7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="CU7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="CV7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CW7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="CW7" s="12" t="s">
+      <c r="CX7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="CX7" s="12" t="s">
+      <c r="CY7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="CY7" s="12" t="s">
+      <c r="CZ7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="CZ7" s="12" t="s">
+      <c r="DA7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="DA7" s="12" t="s">
+      <c r="DB7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="DB7" s="12" t="s">
+      <c r="DC7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="DC7" s="12" t="s">
+      <c r="DD7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="DD7" s="12" t="s">
+      <c r="DE7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="DE7" s="12" t="s">
+      <c r="DF7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="DF7" s="12" t="s">
+      <c r="DG7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="DG7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="DH7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="DI7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="DI7" s="12" t="s">
+      <c r="DJ7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="DJ7" s="12" t="s">
+      <c r="DK7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="DK7" s="12" t="s">
+      <c r="DL7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="DL7" s="12" t="s">
+      <c r="DM7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="DM7" s="12" t="s">
+      <c r="DN7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="DN7" s="12" t="s">
+      <c r="DO7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="DO7" s="12" t="s">
+      <c r="DP7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="DP7" s="12" t="s">
+      <c r="DQ7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="DQ7" s="12" t="s">
+      <c r="DR7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="DR7" s="12" t="s">
+      <c r="DS7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="DS7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="DT7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="DU7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="DU7" s="12" t="s">
+      <c r="DV7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="DV7" s="12" t="s">
+      <c r="DW7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="DW7" s="12" t="s">
+      <c r="DX7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="DX7" s="12" t="s">
+      <c r="DY7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="DY7" s="12" t="s">
+      <c r="DZ7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="DZ7" s="12" t="s">
+      <c r="EA7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="EA7" s="12" t="s">
+      <c r="EB7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="EB7" s="12" t="s">
+      <c r="EC7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="EC7" s="12" t="s">
+      <c r="ED7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="ED7" s="12" t="s">
+      <c r="EE7" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="EE7" s="12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:135">
@@ -20554,489 +20531,489 @@
         <v>0</v>
       </c>
       <c r="P12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="Q12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="R12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="S12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="T12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="U12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="V12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="W12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="X12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="Y12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="Z12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AA12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AB12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AC12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AD12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AE12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AF12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AG12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AH12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AI12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AK12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AL12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AM12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AN12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AO12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AP12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AQ12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AR12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AS12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AT12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AU12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AV12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AW12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AX12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AY12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="AZ12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BA12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BB12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BC12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BD12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BE12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BF12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BG12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BH12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BI12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BJ12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BK12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BL12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BM12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BN12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BO12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BP12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BQ12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BR12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BS12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BT12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BU12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BV12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BW12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BX12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BY12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="BZ12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CA12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CB12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CC12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CD12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CE12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CF12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CG12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CH12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CI12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CJ12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CK12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CL12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CM12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CN12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CO12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CP12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CQ12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CR12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CS12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CT12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CU12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CV12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CW12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CX12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CY12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="CZ12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DA12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DB12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DC12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DD12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DE12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DF12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DG12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DH12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DI12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DJ12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DK12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DL12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DM12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DN12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DO12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DP12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DQ12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DR12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DS12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DT12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DU12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DV12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DW12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DX12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DY12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="DZ12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="EA12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="EB12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="EC12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="ED12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
       <c r="EE12" s="21">
-        <f>'Revenue_COGS_Build'!$E$12</f>
+        <f>'Revenue_COGS_Build'!$E$21</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:135">
       <c r="B13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="15">
         <f>+E$8+E$9+E$10+E$11+E$12</f>
@@ -21561,7 +21538,7 @@
     </row>
     <row r="14" spans="2:135">
       <c r="B14" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" s="23">
         <f>(F$13-E$13)/E$13</f>
@@ -23613,7 +23590,7 @@
     </row>
     <row r="19" spans="2:135">
       <c r="B19" s="20" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E19" s="9">
         <f>sumif(P6:EE6, E6, P19:EE19)</f>
@@ -24138,7 +24115,7 @@
     </row>
     <row r="20" spans="2:135">
       <c r="B20" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="9">
         <f>sumif(P6:EE6, E6, P20:EE20)</f>
@@ -24663,7 +24640,7 @@
     </row>
     <row r="21" spans="2:135">
       <c r="B21" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="15">
         <f>+E$16+E$17+E$18+E$19+E$20</f>
@@ -25188,7 +25165,7 @@
     </row>
     <row r="22" spans="2:135">
       <c r="C22" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="23">
         <f>E21/E$13</f>
@@ -25713,7 +25690,7 @@
     </row>
     <row r="23" spans="2:135">
       <c r="B23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" s="15">
         <f>+E$13-E$21</f>
@@ -26238,7 +26215,7 @@
     </row>
     <row r="24" spans="2:135">
       <c r="C24" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="23">
         <f>E23/E$13</f>
@@ -26763,7 +26740,7 @@
     </row>
     <row r="26" spans="2:135">
       <c r="B26" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E26" s="9">
         <f>sumif(P6:EE6, E6, P26:EE26)</f>
@@ -27288,7 +27265,7 @@
     </row>
     <row r="27" spans="2:135">
       <c r="B27" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="9">
         <f>sumif(P6:EE6, E6, P27:EE27)</f>
@@ -27813,7 +27790,7 @@
     </row>
     <row r="28" spans="2:135">
       <c r="B28" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E28" s="9">
         <f>sumif(P6:EE6, E6, P28:EE28)</f>
@@ -28218,7 +28195,7 @@
     </row>
     <row r="29" spans="2:135">
       <c r="B29" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="15">
         <f>+E$23-E$26-E$27</f>
@@ -28743,7 +28720,7 @@
     </row>
     <row r="30" spans="2:135">
       <c r="C30" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="23">
         <f>E29/E$13</f>
@@ -29268,7 +29245,7 @@
     </row>
     <row r="32" spans="2:135">
       <c r="B32" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" s="9">
         <f>sumif(P6:EE6, E6, P32:EE32)</f>
@@ -29793,7 +29770,7 @@
     </row>
     <row r="33" spans="2:135">
       <c r="B33" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E33" s="15">
         <f>+E$29-E$32</f>
@@ -30318,7 +30295,7 @@
     </row>
     <row r="34" spans="2:135">
       <c r="C34" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="23">
         <f>E33/E$13</f>
@@ -30843,7 +30820,7 @@
     </row>
     <row r="36" spans="2:135">
       <c r="B36" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" s="9">
         <f>sumif(P6:EE6, E6, P36:EE36)</f>
@@ -31248,7 +31225,7 @@
     </row>
     <row r="37" spans="2:135">
       <c r="B37" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" s="25">
         <v>0.21</v>
@@ -31776,7 +31753,7 @@
     </row>
     <row r="38" spans="2:135">
       <c r="B38" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E38" s="15">
         <f>+E$33-E$36-E$37</f>
@@ -32301,7 +32278,7 @@
     </row>
     <row r="39" spans="2:135">
       <c r="C39" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="23">
         <f>E38/E$13</f>
@@ -32845,7 +32822,7 @@
   <sheetData>
     <row r="2" spans="2:135">
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:135" ht="5" customHeight="1">
@@ -32984,402 +32961,402 @@
     </row>
     <row r="5" spans="2:135">
       <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:135">
       <c r="E6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="P6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="AC6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="AD6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="AE6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="AF6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="AG6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="AH6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="AI6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="AJ6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="AK6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="AL6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AM6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AN6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AO6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AP6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AQ6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AR6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="6" t="s">
+      <c r="AS6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AH6" s="6" t="s">
+      <c r="AT6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AU6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AV6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AK6" s="6" t="s">
+      <c r="AW6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AX6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AM6" s="6" t="s">
+      <c r="AY6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AN6" s="6" t="s">
+      <c r="AZ6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AO6" s="6" t="s">
+      <c r="BA6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AP6" s="6" t="s">
+      <c r="BB6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AQ6" s="6" t="s">
+      <c r="BC6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AR6" s="6" t="s">
+      <c r="BD6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AS6" s="6" t="s">
+      <c r="BE6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AT6" s="6" t="s">
+      <c r="BF6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AU6" s="6" t="s">
+      <c r="BG6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AV6" s="6" t="s">
+      <c r="BH6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AW6" s="6" t="s">
+      <c r="BI6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AX6" s="6" t="s">
+      <c r="BJ6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AY6" s="6" t="s">
+      <c r="BK6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AZ6" s="6" t="s">
+      <c r="BL6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BA6" s="6" t="s">
+      <c r="BM6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BB6" s="6" t="s">
+      <c r="BN6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BC6" s="6" t="s">
+      <c r="BO6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BD6" s="6" t="s">
+      <c r="BP6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BE6" s="6" t="s">
+      <c r="BQ6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BF6" s="6" t="s">
+      <c r="BR6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BG6" s="6" t="s">
+      <c r="BS6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BH6" s="6" t="s">
+      <c r="BT6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BI6" s="6" t="s">
+      <c r="BU6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BJ6" s="6" t="s">
+      <c r="BV6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BK6" s="6" t="s">
+      <c r="BW6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BL6" s="6" t="s">
+      <c r="BX6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BM6" s="6" t="s">
+      <c r="BY6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BN6" s="6" t="s">
+      <c r="BZ6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BO6" s="6" t="s">
+      <c r="CA6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BP6" s="6" t="s">
+      <c r="CB6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BQ6" s="6" t="s">
+      <c r="CC6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BR6" s="6" t="s">
+      <c r="CD6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BS6" s="6" t="s">
+      <c r="CE6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BT6" s="6" t="s">
+      <c r="CF6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BU6" s="6" t="s">
+      <c r="CG6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BV6" s="6" t="s">
+      <c r="CH6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BW6" s="6" t="s">
+      <c r="CI6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BX6" s="6" t="s">
+      <c r="CJ6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BY6" s="6" t="s">
+      <c r="CK6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BZ6" s="6" t="s">
+      <c r="CL6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CA6" s="6" t="s">
+      <c r="CM6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CB6" s="6" t="s">
+      <c r="CN6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CC6" s="6" t="s">
+      <c r="CO6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CD6" s="6" t="s">
+      <c r="CP6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CE6" s="6" t="s">
+      <c r="CQ6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CF6" s="6" t="s">
+      <c r="CR6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CG6" s="6" t="s">
+      <c r="CS6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CH6" s="6" t="s">
+      <c r="CT6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CI6" s="6" t="s">
+      <c r="CU6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CJ6" s="6" t="s">
+      <c r="CV6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CK6" s="6" t="s">
+      <c r="CW6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CL6" s="6" t="s">
+      <c r="CX6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CM6" s="6" t="s">
+      <c r="CY6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CN6" s="6" t="s">
+      <c r="CZ6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CO6" s="6" t="s">
+      <c r="DA6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CP6" s="6" t="s">
+      <c r="DB6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CQ6" s="6" t="s">
+      <c r="DC6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CR6" s="6" t="s">
+      <c r="DD6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CS6" s="6" t="s">
+      <c r="DE6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CT6" s="6" t="s">
+      <c r="DF6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CU6" s="6" t="s">
+      <c r="DG6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CV6" s="6" t="s">
+      <c r="DH6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="CW6" s="6" t="s">
+      <c r="DI6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="CX6" s="6" t="s">
+      <c r="DJ6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="CY6" s="6" t="s">
+      <c r="DK6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="CZ6" s="6" t="s">
+      <c r="DL6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DA6" s="6" t="s">
+      <c r="DM6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DB6" s="6" t="s">
+      <c r="DN6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DC6" s="6" t="s">
+      <c r="DO6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DD6" s="6" t="s">
+      <c r="DP6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DE6" s="6" t="s">
+      <c r="DQ6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DF6" s="6" t="s">
+      <c r="DR6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DG6" s="6" t="s">
+      <c r="DS6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DH6" s="6" t="s">
+      <c r="DT6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DI6" s="6" t="s">
+      <c r="DU6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DJ6" s="6" t="s">
+      <c r="DV6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DK6" s="6" t="s">
+      <c r="DW6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DL6" s="6" t="s">
+      <c r="DX6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DM6" s="6" t="s">
+      <c r="DY6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DN6" s="6" t="s">
+      <c r="DZ6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DO6" s="6" t="s">
+      <c r="EA6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DP6" s="6" t="s">
+      <c r="EB6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DQ6" s="6" t="s">
+      <c r="EC6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DR6" s="6" t="s">
+      <c r="ED6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DS6" s="6" t="s">
+      <c r="EE6" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="DT6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="DU6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="DV6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="DW6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="DX6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="DY6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="DZ6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EA6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EB6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EC6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="ED6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EE6" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:135">
@@ -33394,369 +33371,369 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="P7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="R7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="S7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="U7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="V7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="W7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="X7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="Y7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="12" t="s">
+      <c r="Z7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="AA7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="AB7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AC7" s="12" t="s">
+      <c r="AD7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AD7" s="12" t="s">
+      <c r="AE7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" s="12" t="s">
+      <c r="AF7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AG7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AH7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AI7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AI7" s="12" t="s">
+      <c r="AJ7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AJ7" s="12" t="s">
+      <c r="AK7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="AL7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AL7" s="12" t="s">
+      <c r="AM7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AM7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="AN7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AO7" s="12" t="s">
+      <c r="AP7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AP7" s="12" t="s">
+      <c r="AQ7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AQ7" s="12" t="s">
+      <c r="AR7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AR7" s="12" t="s">
+      <c r="AS7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AS7" s="12" t="s">
+      <c r="AT7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AT7" s="12" t="s">
+      <c r="AU7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AU7" s="12" t="s">
+      <c r="AV7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AV7" s="12" t="s">
+      <c r="AW7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AW7" s="12" t="s">
+      <c r="AX7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AX7" s="12" t="s">
+      <c r="AY7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AY7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="AZ7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BA7" s="12" t="s">
+      <c r="BB7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BB7" s="12" t="s">
+      <c r="BC7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BC7" s="12" t="s">
+      <c r="BD7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BD7" s="12" t="s">
+      <c r="BE7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BE7" s="12" t="s">
+      <c r="BF7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BF7" s="12" t="s">
+      <c r="BG7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BG7" s="12" t="s">
+      <c r="BH7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BH7" s="12" t="s">
+      <c r="BI7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BI7" s="12" t="s">
+      <c r="BJ7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BJ7" s="12" t="s">
+      <c r="BK7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BK7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="BL7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BM7" s="12" t="s">
+      <c r="BN7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BN7" s="12" t="s">
+      <c r="BO7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BO7" s="12" t="s">
+      <c r="BP7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BP7" s="12" t="s">
+      <c r="BQ7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BQ7" s="12" t="s">
+      <c r="BR7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BR7" s="12" t="s">
+      <c r="BS7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BS7" s="12" t="s">
+      <c r="BT7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BT7" s="12" t="s">
+      <c r="BU7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BU7" s="12" t="s">
+      <c r="BV7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BV7" s="12" t="s">
+      <c r="BW7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BW7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="BX7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BY7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BY7" s="12" t="s">
+      <c r="BZ7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BZ7" s="12" t="s">
+      <c r="CA7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="CA7" s="12" t="s">
+      <c r="CB7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="CB7" s="12" t="s">
+      <c r="CC7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="CC7" s="12" t="s">
+      <c r="CD7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="CD7" s="12" t="s">
+      <c r="CE7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CE7" s="12" t="s">
+      <c r="CF7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="CF7" s="12" t="s">
+      <c r="CG7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="CG7" s="12" t="s">
+      <c r="CH7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CH7" s="12" t="s">
+      <c r="CI7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="CI7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="CJ7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CK7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="CK7" s="12" t="s">
+      <c r="CL7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="CL7" s="12" t="s">
+      <c r="CM7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="CM7" s="12" t="s">
+      <c r="CN7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="CN7" s="12" t="s">
+      <c r="CO7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="CO7" s="12" t="s">
+      <c r="CP7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="CP7" s="12" t="s">
+      <c r="CQ7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CQ7" s="12" t="s">
+      <c r="CR7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="CR7" s="12" t="s">
+      <c r="CS7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="CS7" s="12" t="s">
+      <c r="CT7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CT7" s="12" t="s">
+      <c r="CU7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="CU7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="CV7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CW7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="CW7" s="12" t="s">
+      <c r="CX7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="CX7" s="12" t="s">
+      <c r="CY7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="CY7" s="12" t="s">
+      <c r="CZ7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="CZ7" s="12" t="s">
+      <c r="DA7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="DA7" s="12" t="s">
+      <c r="DB7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="DB7" s="12" t="s">
+      <c r="DC7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="DC7" s="12" t="s">
+      <c r="DD7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="DD7" s="12" t="s">
+      <c r="DE7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="DE7" s="12" t="s">
+      <c r="DF7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="DF7" s="12" t="s">
+      <c r="DG7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="DG7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="DH7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="DI7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="DI7" s="12" t="s">
+      <c r="DJ7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="DJ7" s="12" t="s">
+      <c r="DK7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="DK7" s="12" t="s">
+      <c r="DL7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="DL7" s="12" t="s">
+      <c r="DM7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="DM7" s="12" t="s">
+      <c r="DN7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="DN7" s="12" t="s">
+      <c r="DO7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="DO7" s="12" t="s">
+      <c r="DP7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="DP7" s="12" t="s">
+      <c r="DQ7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="DQ7" s="12" t="s">
+      <c r="DR7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="DR7" s="12" t="s">
+      <c r="DS7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="DS7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="DT7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="DU7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="DU7" s="12" t="s">
+      <c r="DV7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="DV7" s="12" t="s">
+      <c r="DW7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="DW7" s="12" t="s">
+      <c r="DX7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="DX7" s="12" t="s">
+      <c r="DY7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="DY7" s="12" t="s">
+      <c r="DZ7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="DZ7" s="12" t="s">
+      <c r="EA7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="EA7" s="12" t="s">
+      <c r="EB7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="EB7" s="12" t="s">
+      <c r="EC7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="EC7" s="12" t="s">
+      <c r="ED7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="ED7" s="12" t="s">
+      <c r="EE7" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="EE7" s="12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:135">
       <c r="B8" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="9">
         <f>sumif(P6:EE6, E6, P8:EE8)</f>
@@ -34281,7 +34258,7 @@
     </row>
     <row r="9" spans="2:135">
       <c r="B9" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="9">
         <f>sumif(P6:EE6, E6, P9:EE9)</f>
@@ -34806,7 +34783,7 @@
     </row>
     <row r="10" spans="2:135">
       <c r="B10" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="9">
         <f>sumif(P6:EE6, E6, P10:EE10)</f>
@@ -35331,37 +35308,37 @@
     </row>
     <row r="11" spans="2:135">
       <c r="B11" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:135">
       <c r="B12" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="2:135">
       <c r="B13" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:135">
       <c r="B14" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="2:135">
       <c r="B15" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="2:135">
       <c r="B16" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -35386,7 +35363,7 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="5" customHeight="1">
@@ -35402,181 +35379,181 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="26">
+        <v>4000</v>
+      </c>
+      <c r="D6" s="26">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="26">
+        <v>500</v>
+      </c>
+      <c r="F6" s="26">
+        <v>1.1</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="26">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="J6" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="26">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="26">
+        <v>2500</v>
+      </c>
+      <c r="E7" s="26">
+        <v>400</v>
+      </c>
+      <c r="F7" s="26">
+        <v>1</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="26">
+        <v>7.5</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C8" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="26">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="26">
+        <v>350</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="26">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="J9" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="26">
+        <v>1800</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="26">
+        <v>300</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="26">
+        <v>6.5</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="15">
         <f>MEDIAN(C6:C10)</f>
@@ -35605,7 +35582,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="26">
         <f>AVERAGE(C7:C11)</f>
@@ -35652,7 +35629,7 @@
   <sheetData>
     <row r="2" spans="2:138">
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="2:138" ht="5" customHeight="1">
@@ -35796,12 +35773,12 @@
     </row>
     <row r="5" spans="2:138">
       <c r="I5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:138">
       <c r="I6" s="18">
-        <v>40909</v>
+        <v>42736</v>
       </c>
       <c r="J6" s="18">
         <f>edate(I6,12)</f>
@@ -35842,20 +35819,20 @@
     </row>
     <row r="8" spans="2:138">
       <c r="B8" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:138">
       <c r="B9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" spans="2:138">
       <c r="B10" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
@@ -35863,7 +35840,7 @@
     </row>
     <row r="11" spans="2:138">
       <c r="B11" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
@@ -35871,7 +35848,7 @@
     </row>
     <row r="12" spans="2:138">
       <c r="B12" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
@@ -35879,7 +35856,7 @@
     </row>
     <row r="13" spans="2:138">
       <c r="B13" s="6">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C13" s="8">
         <v>0</v>
@@ -35887,7 +35864,7 @@
     </row>
     <row r="14" spans="2:138">
       <c r="B14" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
@@ -35895,7 +35872,7 @@
     </row>
     <row r="15" spans="2:138">
       <c r="B15" s="6">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -35903,7 +35880,7 @@
     </row>
     <row r="16" spans="2:138">
       <c r="B16" s="6">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
@@ -35911,7 +35888,7 @@
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="6">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C17" s="8">
         <v>0</v>
@@ -35919,7 +35896,7 @@
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="6">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
@@ -35927,7 +35904,7 @@
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="6">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -35935,7 +35912,7 @@
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I21" s="21">
         <f>'Unit_IS'!E$13</f>
@@ -35980,7 +35957,7 @@
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C23" s="6">
         <f>$C10</f>
@@ -36029,7 +36006,7 @@
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C24" s="6">
         <f>$C11</f>
@@ -36074,7 +36051,7 @@
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C25" s="6">
         <f>$C12</f>
@@ -36115,7 +36092,7 @@
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="6">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C26" s="6">
         <f>$C13</f>
@@ -36152,7 +36129,7 @@
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C27" s="6">
         <f>$C14</f>
@@ -36185,7 +36162,7 @@
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="6">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C28" s="6">
         <f>$C15</f>
@@ -36214,7 +36191,7 @@
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="6">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C29" s="6">
         <f>$C16</f>
@@ -36239,7 +36216,7 @@
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="6">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C30" s="6">
         <f>$C17</f>
@@ -36260,7 +36237,7 @@
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="6">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C31" s="6">
         <f>$C18</f>
@@ -36277,7 +36254,7 @@
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="6">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="C32" s="6">
         <f>$C19</f>
@@ -36332,7 +36309,7 @@
     </row>
     <row r="35" spans="2:18">
       <c r="B35" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I35" s="21">
         <f>'Unit_IS'!E$21</f>
@@ -36377,7 +36354,7 @@
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C37" s="6">
         <f>$C10</f>
@@ -36426,7 +36403,7 @@
     </row>
     <row r="38" spans="2:18">
       <c r="B38" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C38" s="6">
         <f>$C11</f>
@@ -36471,7 +36448,7 @@
     </row>
     <row r="39" spans="2:18">
       <c r="B39" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C39" s="6">
         <f>$C12</f>
@@ -36512,7 +36489,7 @@
     </row>
     <row r="40" spans="2:18">
       <c r="B40" s="6">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C40" s="6">
         <f>$C13</f>
@@ -36549,7 +36526,7 @@
     </row>
     <row r="41" spans="2:18">
       <c r="B41" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C41" s="6">
         <f>$C14</f>
@@ -36582,7 +36559,7 @@
     </row>
     <row r="42" spans="2:18">
       <c r="B42" s="6">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C42" s="6">
         <f>$C15</f>
@@ -36611,7 +36588,7 @@
     </row>
     <row r="43" spans="2:18">
       <c r="B43" s="6">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C43" s="6">
         <f>$C16</f>
@@ -36636,7 +36613,7 @@
     </row>
     <row r="44" spans="2:18">
       <c r="B44" s="6">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C44" s="6">
         <f>$C17</f>
@@ -36657,7 +36634,7 @@
     </row>
     <row r="45" spans="2:18">
       <c r="B45" s="6">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C45" s="6">
         <f>$C18</f>
@@ -36674,7 +36651,7 @@
     </row>
     <row r="46" spans="2:18">
       <c r="B46" s="6">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="C46" s="6">
         <f>$C19</f>
@@ -36729,7 +36706,7 @@
     </row>
     <row r="49" spans="2:18">
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I49" s="21">
         <f>'Unit_IS'!E$23</f>
@@ -36774,7 +36751,7 @@
     </row>
     <row r="51" spans="2:18">
       <c r="B51" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C51" s="6">
         <f>$C10</f>
@@ -36823,7 +36800,7 @@
     </row>
     <row r="52" spans="2:18">
       <c r="B52" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C52" s="6">
         <f>$C11</f>
@@ -36868,7 +36845,7 @@
     </row>
     <row r="53" spans="2:18">
       <c r="B53" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C53" s="6">
         <f>$C12</f>
@@ -36909,7 +36886,7 @@
     </row>
     <row r="54" spans="2:18">
       <c r="B54" s="6">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C54" s="6">
         <f>$C13</f>
@@ -36946,7 +36923,7 @@
     </row>
     <row r="55" spans="2:18">
       <c r="B55" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C55" s="6">
         <f>$C14</f>
@@ -36979,7 +36956,7 @@
     </row>
     <row r="56" spans="2:18">
       <c r="B56" s="6">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C56" s="6">
         <f>$C15</f>
@@ -37008,7 +36985,7 @@
     </row>
     <row r="57" spans="2:18">
       <c r="B57" s="6">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C57" s="6">
         <f>$C16</f>
@@ -37033,7 +37010,7 @@
     </row>
     <row r="58" spans="2:18">
       <c r="B58" s="6">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C58" s="6">
         <f>$C17</f>
@@ -37054,7 +37031,7 @@
     </row>
     <row r="59" spans="2:18">
       <c r="B59" s="6">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C59" s="6">
         <f>$C18</f>
@@ -37071,7 +37048,7 @@
     </row>
     <row r="60" spans="2:18">
       <c r="B60" s="6">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="C60" s="6">
         <f>$C19</f>
@@ -37126,7 +37103,7 @@
     </row>
     <row r="63" spans="2:18">
       <c r="B63" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I63" s="21">
         <f>'Unit_IS'!E$26</f>
@@ -37171,7 +37148,7 @@
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C65" s="6">
         <f>$C10</f>
@@ -37220,7 +37197,7 @@
     </row>
     <row r="66" spans="2:18">
       <c r="B66" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C66" s="6">
         <f>$C11</f>
@@ -37265,7 +37242,7 @@
     </row>
     <row r="67" spans="2:18">
       <c r="B67" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C67" s="6">
         <f>$C12</f>
@@ -37306,7 +37283,7 @@
     </row>
     <row r="68" spans="2:18">
       <c r="B68" s="6">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C68" s="6">
         <f>$C13</f>
@@ -37343,7 +37320,7 @@
     </row>
     <row r="69" spans="2:18">
       <c r="B69" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C69" s="6">
         <f>$C14</f>
@@ -37376,7 +37353,7 @@
     </row>
     <row r="70" spans="2:18">
       <c r="B70" s="6">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C70" s="6">
         <f>$C15</f>
@@ -37405,7 +37382,7 @@
     </row>
     <row r="71" spans="2:18">
       <c r="B71" s="6">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C71" s="6">
         <f>$C16</f>
@@ -37430,7 +37407,7 @@
     </row>
     <row r="72" spans="2:18">
       <c r="B72" s="6">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C72" s="6">
         <f>$C17</f>
@@ -37451,7 +37428,7 @@
     </row>
     <row r="73" spans="2:18">
       <c r="B73" s="6">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C73" s="6">
         <f>$C18</f>
@@ -37468,7 +37445,7 @@
     </row>
     <row r="74" spans="2:18">
       <c r="B74" s="6">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="C74" s="6">
         <f>$C19</f>
@@ -37523,7 +37500,7 @@
     </row>
     <row r="77" spans="2:18">
       <c r="B77" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I77" s="21">
         <f>'Unit_IS'!E$27</f>
@@ -37568,7 +37545,7 @@
     </row>
     <row r="79" spans="2:18">
       <c r="B79" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C79" s="6">
         <f>$C10</f>
@@ -37617,7 +37594,7 @@
     </row>
     <row r="80" spans="2:18">
       <c r="B80" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C80" s="6">
         <f>$C11</f>
@@ -37662,7 +37639,7 @@
     </row>
     <row r="81" spans="2:18">
       <c r="B81" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C81" s="6">
         <f>$C12</f>
@@ -37703,7 +37680,7 @@
     </row>
     <row r="82" spans="2:18">
       <c r="B82" s="6">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C82" s="6">
         <f>$C13</f>
@@ -37740,7 +37717,7 @@
     </row>
     <row r="83" spans="2:18">
       <c r="B83" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C83" s="6">
         <f>$C14</f>
@@ -37773,7 +37750,7 @@
     </row>
     <row r="84" spans="2:18">
       <c r="B84" s="6">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C84" s="6">
         <f>$C15</f>
@@ -37802,7 +37779,7 @@
     </row>
     <row r="85" spans="2:18">
       <c r="B85" s="6">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C85" s="6">
         <f>$C16</f>
@@ -37827,7 +37804,7 @@
     </row>
     <row r="86" spans="2:18">
       <c r="B86" s="6">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C86" s="6">
         <f>$C17</f>
@@ -37848,7 +37825,7 @@
     </row>
     <row r="87" spans="2:18">
       <c r="B87" s="6">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C87" s="6">
         <f>$C18</f>
@@ -37865,7 +37842,7 @@
     </row>
     <row r="88" spans="2:18">
       <c r="B88" s="6">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="C88" s="6">
         <f>$C19</f>
@@ -37920,7 +37897,7 @@
     </row>
     <row r="91" spans="2:18">
       <c r="B91" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I91" s="21">
         <f>'Unit_IS'!E$28</f>
@@ -37965,7 +37942,7 @@
     </row>
     <row r="93" spans="2:18">
       <c r="B93" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C93" s="6">
         <f>$C10</f>
@@ -38014,7 +37991,7 @@
     </row>
     <row r="94" spans="2:18">
       <c r="B94" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C94" s="6">
         <f>$C11</f>
@@ -38059,7 +38036,7 @@
     </row>
     <row r="95" spans="2:18">
       <c r="B95" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C95" s="6">
         <f>$C12</f>
@@ -38100,7 +38077,7 @@
     </row>
     <row r="96" spans="2:18">
       <c r="B96" s="6">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C96" s="6">
         <f>$C13</f>
@@ -38137,7 +38114,7 @@
     </row>
     <row r="97" spans="2:18">
       <c r="B97" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C97" s="6">
         <f>$C14</f>
@@ -38170,7 +38147,7 @@
     </row>
     <row r="98" spans="2:18">
       <c r="B98" s="6">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C98" s="6">
         <f>$C15</f>
@@ -38199,7 +38176,7 @@
     </row>
     <row r="99" spans="2:18">
       <c r="B99" s="6">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C99" s="6">
         <f>$C16</f>
@@ -38224,7 +38201,7 @@
     </row>
     <row r="100" spans="2:18">
       <c r="B100" s="6">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C100" s="6">
         <f>$C17</f>
@@ -38245,7 +38222,7 @@
     </row>
     <row r="101" spans="2:18">
       <c r="B101" s="6">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C101" s="6">
         <f>$C18</f>
@@ -38262,7 +38239,7 @@
     </row>
     <row r="102" spans="2:18">
       <c r="B102" s="6">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="C102" s="6">
         <f>$C19</f>
@@ -38317,7 +38294,7 @@
     </row>
     <row r="105" spans="2:18">
       <c r="B105" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I105" s="21">
         <f>'Unit_IS'!E$29</f>
@@ -38362,7 +38339,7 @@
     </row>
     <row r="107" spans="2:18">
       <c r="B107" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C107" s="6">
         <f>$C10</f>
@@ -38411,7 +38388,7 @@
     </row>
     <row r="108" spans="2:18">
       <c r="B108" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C108" s="6">
         <f>$C11</f>
@@ -38456,7 +38433,7 @@
     </row>
     <row r="109" spans="2:18">
       <c r="B109" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C109" s="6">
         <f>$C12</f>
@@ -38497,7 +38474,7 @@
     </row>
     <row r="110" spans="2:18">
       <c r="B110" s="6">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C110" s="6">
         <f>$C13</f>
@@ -38534,7 +38511,7 @@
     </row>
     <row r="111" spans="2:18">
       <c r="B111" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C111" s="6">
         <f>$C14</f>
@@ -38567,7 +38544,7 @@
     </row>
     <row r="112" spans="2:18">
       <c r="B112" s="6">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C112" s="6">
         <f>$C15</f>
@@ -38596,7 +38573,7 @@
     </row>
     <row r="113" spans="2:18">
       <c r="B113" s="6">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C113" s="6">
         <f>$C16</f>
@@ -38621,7 +38598,7 @@
     </row>
     <row r="114" spans="2:18">
       <c r="B114" s="6">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C114" s="6">
         <f>$C17</f>
@@ -38642,7 +38619,7 @@
     </row>
     <row r="115" spans="2:18">
       <c r="B115" s="6">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C115" s="6">
         <f>$C18</f>
@@ -38659,7 +38636,7 @@
     </row>
     <row r="116" spans="2:18">
       <c r="B116" s="6">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="C116" s="6">
         <f>$C19</f>
@@ -38714,7 +38691,7 @@
     </row>
     <row r="119" spans="2:18">
       <c r="B119" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I119" s="21">
         <f>'Unit_IS'!E$32</f>
@@ -38759,7 +38736,7 @@
     </row>
     <row r="121" spans="2:18">
       <c r="B121" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C121" s="6">
         <f>$C10</f>
@@ -38808,7 +38785,7 @@
     </row>
     <row r="122" spans="2:18">
       <c r="B122" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C122" s="6">
         <f>$C11</f>
@@ -38853,7 +38830,7 @@
     </row>
     <row r="123" spans="2:18">
       <c r="B123" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C123" s="6">
         <f>$C12</f>
@@ -38894,7 +38871,7 @@
     </row>
     <row r="124" spans="2:18">
       <c r="B124" s="6">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C124" s="6">
         <f>$C13</f>
@@ -38931,7 +38908,7 @@
     </row>
     <row r="125" spans="2:18">
       <c r="B125" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C125" s="6">
         <f>$C14</f>
@@ -38964,7 +38941,7 @@
     </row>
     <row r="126" spans="2:18">
       <c r="B126" s="6">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C126" s="6">
         <f>$C15</f>
@@ -38993,7 +38970,7 @@
     </row>
     <row r="127" spans="2:18">
       <c r="B127" s="6">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C127" s="6">
         <f>$C16</f>
@@ -39018,7 +38995,7 @@
     </row>
     <row r="128" spans="2:18">
       <c r="B128" s="6">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C128" s="6">
         <f>$C17</f>
@@ -39039,7 +39016,7 @@
     </row>
     <row r="129" spans="2:18">
       <c r="B129" s="6">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C129" s="6">
         <f>$C18</f>
@@ -39056,7 +39033,7 @@
     </row>
     <row r="130" spans="2:18">
       <c r="B130" s="6">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="C130" s="6">
         <f>$C19</f>
@@ -39111,7 +39088,7 @@
     </row>
     <row r="133" spans="2:18">
       <c r="B133" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I133" s="21">
         <f>'Unit_IS'!E$33</f>
@@ -39156,7 +39133,7 @@
     </row>
     <row r="135" spans="2:18">
       <c r="B135" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C135" s="6">
         <f>$C10</f>
@@ -39205,7 +39182,7 @@
     </row>
     <row r="136" spans="2:18">
       <c r="B136" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C136" s="6">
         <f>$C11</f>
@@ -39250,7 +39227,7 @@
     </row>
     <row r="137" spans="2:18">
       <c r="B137" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C137" s="6">
         <f>$C12</f>
@@ -39291,7 +39268,7 @@
     </row>
     <row r="138" spans="2:18">
       <c r="B138" s="6">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C138" s="6">
         <f>$C13</f>
@@ -39328,7 +39305,7 @@
     </row>
     <row r="139" spans="2:18">
       <c r="B139" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C139" s="6">
         <f>$C14</f>
@@ -39361,7 +39338,7 @@
     </row>
     <row r="140" spans="2:18">
       <c r="B140" s="6">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C140" s="6">
         <f>$C15</f>
@@ -39390,7 +39367,7 @@
     </row>
     <row r="141" spans="2:18">
       <c r="B141" s="6">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C141" s="6">
         <f>$C16</f>
@@ -39415,7 +39392,7 @@
     </row>
     <row r="142" spans="2:18">
       <c r="B142" s="6">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C142" s="6">
         <f>$C17</f>
@@ -39436,7 +39413,7 @@
     </row>
     <row r="143" spans="2:18">
       <c r="B143" s="6">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C143" s="6">
         <f>$C18</f>
@@ -39453,7 +39430,7 @@
     </row>
     <row r="144" spans="2:18">
       <c r="B144" s="6">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="C144" s="6">
         <f>$C19</f>
@@ -39508,7 +39485,7 @@
     </row>
     <row r="147" spans="2:18">
       <c r="B147" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I147" s="21">
         <f>'Unit_IS'!E$36</f>
@@ -39553,7 +39530,7 @@
     </row>
     <row r="149" spans="2:18">
       <c r="B149" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C149" s="6">
         <f>$C10</f>
@@ -39602,7 +39579,7 @@
     </row>
     <row r="150" spans="2:18">
       <c r="B150" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C150" s="6">
         <f>$C11</f>
@@ -39647,7 +39624,7 @@
     </row>
     <row r="151" spans="2:18">
       <c r="B151" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C151" s="6">
         <f>$C12</f>
@@ -39688,7 +39665,7 @@
     </row>
     <row r="152" spans="2:18">
       <c r="B152" s="6">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C152" s="6">
         <f>$C13</f>
@@ -39725,7 +39702,7 @@
     </row>
     <row r="153" spans="2:18">
       <c r="B153" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C153" s="6">
         <f>$C14</f>
@@ -39758,7 +39735,7 @@
     </row>
     <row r="154" spans="2:18">
       <c r="B154" s="6">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C154" s="6">
         <f>$C15</f>
@@ -39787,7 +39764,7 @@
     </row>
     <row r="155" spans="2:18">
       <c r="B155" s="6">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C155" s="6">
         <f>$C16</f>
@@ -39812,7 +39789,7 @@
     </row>
     <row r="156" spans="2:18">
       <c r="B156" s="6">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C156" s="6">
         <f>$C17</f>
@@ -39833,7 +39810,7 @@
     </row>
     <row r="157" spans="2:18">
       <c r="B157" s="6">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C157" s="6">
         <f>$C18</f>
@@ -39850,7 +39827,7 @@
     </row>
     <row r="158" spans="2:18">
       <c r="B158" s="6">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="C158" s="6">
         <f>$C19</f>
@@ -39905,7 +39882,7 @@
     </row>
     <row r="161" spans="2:18">
       <c r="B161" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I161" s="21">
         <f>'Unit_IS'!P$38</f>
@@ -39950,7 +39927,7 @@
     </row>
     <row r="163" spans="2:18">
       <c r="B163" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C163" s="6">
         <f>$C10</f>
@@ -39999,7 +39976,7 @@
     </row>
     <row r="164" spans="2:18">
       <c r="B164" s="6">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C164" s="6">
         <f>$C11</f>
@@ -40044,7 +40021,7 @@
     </row>
     <row r="165" spans="2:18">
       <c r="B165" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C165" s="6">
         <f>$C12</f>
@@ -40085,7 +40062,7 @@
     </row>
     <row r="166" spans="2:18">
       <c r="B166" s="6">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C166" s="6">
         <f>$C13</f>
@@ -40122,7 +40099,7 @@
     </row>
     <row r="167" spans="2:18">
       <c r="B167" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C167" s="6">
         <f>$C14</f>
@@ -40155,7 +40132,7 @@
     </row>
     <row r="168" spans="2:18">
       <c r="B168" s="6">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C168" s="6">
         <f>$C15</f>
@@ -40184,7 +40161,7 @@
     </row>
     <row r="169" spans="2:18">
       <c r="B169" s="6">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C169" s="6">
         <f>$C16</f>
@@ -40209,7 +40186,7 @@
     </row>
     <row r="170" spans="2:18">
       <c r="B170" s="6">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C170" s="6">
         <f>$C17</f>
@@ -40230,7 +40207,7 @@
     </row>
     <row r="171" spans="2:18">
       <c r="B171" s="6">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C171" s="6">
         <f>$C18</f>
@@ -40247,7 +40224,7 @@
     </row>
     <row r="172" spans="2:18">
       <c r="B172" s="6">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="C172" s="6">
         <f>$C19</f>
@@ -40320,7 +40297,7 @@
   <sheetData>
     <row r="2" spans="2:19">
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="5" customHeight="1">
@@ -40345,15 +40322,15 @@
     </row>
     <row r="5" spans="2:19">
       <c r="E5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:19">
       <c r="J6" s="18">
-        <v>40909</v>
+        <v>42736</v>
       </c>
       <c r="K6" s="18">
         <f>edate(J6,12)</f>
@@ -40394,7 +40371,7 @@
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" s="21">
         <f>'Roll Out'!I$33</f>
@@ -40439,7 +40416,7 @@
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J9" s="21">
         <f>'Roll Out'!I$47</f>
@@ -40484,7 +40461,7 @@
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J10" s="15">
         <f>+J$8-J$9</f>
@@ -40529,7 +40506,7 @@
     </row>
     <row r="11" spans="2:19">
       <c r="C11" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J11" s="23">
         <f>J10/J$8</f>
@@ -40574,7 +40551,7 @@
     </row>
     <row r="13" spans="2:19">
       <c r="B13" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J13" s="21">
         <f>'Roll Out'!I$75</f>
@@ -40619,7 +40596,7 @@
     </row>
     <row r="14" spans="2:19">
       <c r="B14" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J14" s="21">
         <f>'Roll Out'!I$89</f>
@@ -40664,12 +40641,12 @@
     </row>
     <row r="15" spans="2:19">
       <c r="B15" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J16" s="15">
         <f>+J$10-J$13-J$14</f>
@@ -40714,7 +40691,7 @@
     </row>
     <row r="17" spans="2:19">
       <c r="C17" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" s="23">
         <f>J16/J$8</f>
@@ -40759,7 +40736,7 @@
     </row>
     <row r="19" spans="2:19">
       <c r="B19" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J19" s="21">
         <f>'Roll Out'!I$131</f>
@@ -40804,7 +40781,7 @@
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J20" s="15">
         <f>+J$16-J$19</f>
@@ -40849,7 +40826,7 @@
     </row>
     <row r="21" spans="2:19">
       <c r="C21" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J21" s="23">
         <f>J20/J$8</f>
@@ -40894,7 +40871,7 @@
     </row>
     <row r="23" spans="2:19">
       <c r="B23" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J23" s="21">
         <f>'Roll Out'!I$159</f>
@@ -40939,7 +40916,7 @@
     </row>
     <row r="24" spans="2:19">
       <c r="B24" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="25">
         <v>0.21</v>
@@ -40987,7 +40964,7 @@
     </row>
     <row r="25" spans="2:19">
       <c r="B25" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J25" s="15">
         <f>+J$20-J$23-J$24</f>
@@ -41032,7 +41009,7 @@
     </row>
     <row r="26" spans="2:19">
       <c r="C26" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J26" s="23">
         <f>J25/J$8</f>
@@ -41095,7 +41072,7 @@
   <sheetData>
     <row r="2" spans="2:135">
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:135" ht="5" customHeight="1">
@@ -41234,402 +41211,402 @@
     </row>
     <row r="5" spans="2:135">
       <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:135">
       <c r="E6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="P6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="AC6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="AD6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="AE6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="AF6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="AG6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="AH6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="AI6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="AJ6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="AK6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="AL6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AM6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AN6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AO6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AP6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AQ6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AR6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="6" t="s">
+      <c r="AS6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AH6" s="6" t="s">
+      <c r="AT6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AU6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AV6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AK6" s="6" t="s">
+      <c r="AW6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AX6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AM6" s="6" t="s">
+      <c r="AY6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AN6" s="6" t="s">
+      <c r="AZ6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AO6" s="6" t="s">
+      <c r="BA6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AP6" s="6" t="s">
+      <c r="BB6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AQ6" s="6" t="s">
+      <c r="BC6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AR6" s="6" t="s">
+      <c r="BD6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AS6" s="6" t="s">
+      <c r="BE6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AT6" s="6" t="s">
+      <c r="BF6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AU6" s="6" t="s">
+      <c r="BG6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AV6" s="6" t="s">
+      <c r="BH6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AW6" s="6" t="s">
+      <c r="BI6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AX6" s="6" t="s">
+      <c r="BJ6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AY6" s="6" t="s">
+      <c r="BK6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AZ6" s="6" t="s">
+      <c r="BL6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BA6" s="6" t="s">
+      <c r="BM6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BB6" s="6" t="s">
+      <c r="BN6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BC6" s="6" t="s">
+      <c r="BO6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BD6" s="6" t="s">
+      <c r="BP6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BE6" s="6" t="s">
+      <c r="BQ6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BF6" s="6" t="s">
+      <c r="BR6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BG6" s="6" t="s">
+      <c r="BS6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BH6" s="6" t="s">
+      <c r="BT6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BI6" s="6" t="s">
+      <c r="BU6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BJ6" s="6" t="s">
+      <c r="BV6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BK6" s="6" t="s">
+      <c r="BW6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BL6" s="6" t="s">
+      <c r="BX6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BM6" s="6" t="s">
+      <c r="BY6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BN6" s="6" t="s">
+      <c r="BZ6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BO6" s="6" t="s">
+      <c r="CA6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BP6" s="6" t="s">
+      <c r="CB6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BQ6" s="6" t="s">
+      <c r="CC6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BR6" s="6" t="s">
+      <c r="CD6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BS6" s="6" t="s">
+      <c r="CE6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BT6" s="6" t="s">
+      <c r="CF6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BU6" s="6" t="s">
+      <c r="CG6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BV6" s="6" t="s">
+      <c r="CH6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BW6" s="6" t="s">
+      <c r="CI6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BX6" s="6" t="s">
+      <c r="CJ6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BY6" s="6" t="s">
+      <c r="CK6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BZ6" s="6" t="s">
+      <c r="CL6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CA6" s="6" t="s">
+      <c r="CM6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CB6" s="6" t="s">
+      <c r="CN6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CC6" s="6" t="s">
+      <c r="CO6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CD6" s="6" t="s">
+      <c r="CP6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CE6" s="6" t="s">
+      <c r="CQ6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CF6" s="6" t="s">
+      <c r="CR6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CG6" s="6" t="s">
+      <c r="CS6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CH6" s="6" t="s">
+      <c r="CT6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CI6" s="6" t="s">
+      <c r="CU6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CJ6" s="6" t="s">
+      <c r="CV6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CK6" s="6" t="s">
+      <c r="CW6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CL6" s="6" t="s">
+      <c r="CX6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CM6" s="6" t="s">
+      <c r="CY6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CN6" s="6" t="s">
+      <c r="CZ6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CO6" s="6" t="s">
+      <c r="DA6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CP6" s="6" t="s">
+      <c r="DB6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CQ6" s="6" t="s">
+      <c r="DC6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CR6" s="6" t="s">
+      <c r="DD6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CS6" s="6" t="s">
+      <c r="DE6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CT6" s="6" t="s">
+      <c r="DF6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CU6" s="6" t="s">
+      <c r="DG6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CV6" s="6" t="s">
+      <c r="DH6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="CW6" s="6" t="s">
+      <c r="DI6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="CX6" s="6" t="s">
+      <c r="DJ6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="CY6" s="6" t="s">
+      <c r="DK6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="CZ6" s="6" t="s">
+      <c r="DL6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DA6" s="6" t="s">
+      <c r="DM6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DB6" s="6" t="s">
+      <c r="DN6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DC6" s="6" t="s">
+      <c r="DO6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DD6" s="6" t="s">
+      <c r="DP6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DE6" s="6" t="s">
+      <c r="DQ6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DF6" s="6" t="s">
+      <c r="DR6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DG6" s="6" t="s">
+      <c r="DS6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="DH6" s="6" t="s">
+      <c r="DT6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DI6" s="6" t="s">
+      <c r="DU6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DJ6" s="6" t="s">
+      <c r="DV6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DK6" s="6" t="s">
+      <c r="DW6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DL6" s="6" t="s">
+      <c r="DX6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DM6" s="6" t="s">
+      <c r="DY6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DN6" s="6" t="s">
+      <c r="DZ6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DO6" s="6" t="s">
+      <c r="EA6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DP6" s="6" t="s">
+      <c r="EB6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DQ6" s="6" t="s">
+      <c r="EC6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DR6" s="6" t="s">
+      <c r="ED6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="DS6" s="6" t="s">
+      <c r="EE6" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="DT6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="DU6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="DV6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="DW6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="DX6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="DY6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="DZ6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EA6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EB6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EC6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="ED6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="EE6" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:135">
@@ -41644,369 +41621,369 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="P7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="R7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="S7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="U7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="V7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="W7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="X7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="Y7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="12" t="s">
+      <c r="Z7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="AA7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="AB7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AC7" s="12" t="s">
+      <c r="AD7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AD7" s="12" t="s">
+      <c r="AE7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" s="12" t="s">
+      <c r="AF7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AG7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AH7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AI7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AI7" s="12" t="s">
+      <c r="AJ7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AJ7" s="12" t="s">
+      <c r="AK7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="AL7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AL7" s="12" t="s">
+      <c r="AM7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AM7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="AN7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AO7" s="12" t="s">
+      <c r="AP7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AP7" s="12" t="s">
+      <c r="AQ7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AQ7" s="12" t="s">
+      <c r="AR7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AR7" s="12" t="s">
+      <c r="AS7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AS7" s="12" t="s">
+      <c r="AT7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AT7" s="12" t="s">
+      <c r="AU7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AU7" s="12" t="s">
+      <c r="AV7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AV7" s="12" t="s">
+      <c r="AW7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AW7" s="12" t="s">
+      <c r="AX7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AX7" s="12" t="s">
+      <c r="AY7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AY7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="AZ7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BA7" s="12" t="s">
+      <c r="BB7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BB7" s="12" t="s">
+      <c r="BC7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BC7" s="12" t="s">
+      <c r="BD7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BD7" s="12" t="s">
+      <c r="BE7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BE7" s="12" t="s">
+      <c r="BF7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BF7" s="12" t="s">
+      <c r="BG7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BG7" s="12" t="s">
+      <c r="BH7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BH7" s="12" t="s">
+      <c r="BI7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BI7" s="12" t="s">
+      <c r="BJ7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BJ7" s="12" t="s">
+      <c r="BK7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BK7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="BL7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BM7" s="12" t="s">
+      <c r="BN7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BN7" s="12" t="s">
+      <c r="BO7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BO7" s="12" t="s">
+      <c r="BP7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BP7" s="12" t="s">
+      <c r="BQ7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BQ7" s="12" t="s">
+      <c r="BR7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BR7" s="12" t="s">
+      <c r="BS7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BS7" s="12" t="s">
+      <c r="BT7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BT7" s="12" t="s">
+      <c r="BU7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BU7" s="12" t="s">
+      <c r="BV7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BV7" s="12" t="s">
+      <c r="BW7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BW7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="BX7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BY7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BY7" s="12" t="s">
+      <c r="BZ7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BZ7" s="12" t="s">
+      <c r="CA7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="CA7" s="12" t="s">
+      <c r="CB7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="CB7" s="12" t="s">
+      <c r="CC7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="CC7" s="12" t="s">
+      <c r="CD7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="CD7" s="12" t="s">
+      <c r="CE7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CE7" s="12" t="s">
+      <c r="CF7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="CF7" s="12" t="s">
+      <c r="CG7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="CG7" s="12" t="s">
+      <c r="CH7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CH7" s="12" t="s">
+      <c r="CI7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="CI7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="CJ7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CK7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="CK7" s="12" t="s">
+      <c r="CL7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="CL7" s="12" t="s">
+      <c r="CM7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="CM7" s="12" t="s">
+      <c r="CN7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="CN7" s="12" t="s">
+      <c r="CO7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="CO7" s="12" t="s">
+      <c r="CP7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="CP7" s="12" t="s">
+      <c r="CQ7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CQ7" s="12" t="s">
+      <c r="CR7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="CR7" s="12" t="s">
+      <c r="CS7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="CS7" s="12" t="s">
+      <c r="CT7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CT7" s="12" t="s">
+      <c r="CU7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="CU7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="CV7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CW7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="CW7" s="12" t="s">
+      <c r="CX7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="CX7" s="12" t="s">
+      <c r="CY7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="CY7" s="12" t="s">
+      <c r="CZ7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="CZ7" s="12" t="s">
+      <c r="DA7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="DA7" s="12" t="s">
+      <c r="DB7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="DB7" s="12" t="s">
+      <c r="DC7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="DC7" s="12" t="s">
+      <c r="DD7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="DD7" s="12" t="s">
+      <c r="DE7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="DE7" s="12" t="s">
+      <c r="DF7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="DF7" s="12" t="s">
+      <c r="DG7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="DG7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="DH7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="DI7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="DI7" s="12" t="s">
+      <c r="DJ7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="DJ7" s="12" t="s">
+      <c r="DK7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="DK7" s="12" t="s">
+      <c r="DL7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="DL7" s="12" t="s">
+      <c r="DM7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="DM7" s="12" t="s">
+      <c r="DN7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="DN7" s="12" t="s">
+      <c r="DO7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="DO7" s="12" t="s">
+      <c r="DP7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="DP7" s="12" t="s">
+      <c r="DQ7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="DQ7" s="12" t="s">
+      <c r="DR7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="DR7" s="12" t="s">
+      <c r="DS7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="DS7" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="DT7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="DU7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="DU7" s="12" t="s">
+      <c r="DV7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="DV7" s="12" t="s">
+      <c r="DW7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="DW7" s="12" t="s">
+      <c r="DX7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="DX7" s="12" t="s">
+      <c r="DY7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="DY7" s="12" t="s">
+      <c r="DZ7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="DZ7" s="12" t="s">
+      <c r="EA7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="EA7" s="12" t="s">
+      <c r="EB7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="EB7" s="12" t="s">
+      <c r="EC7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="EC7" s="12" t="s">
+      <c r="ED7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="ED7" s="12" t="s">
+      <c r="EE7" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="EE7" s="12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:135">
       <c r="B8" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="9">
         <f>sumif(P6:EE6, E6, P8:EE8)</f>
@@ -42531,7 +42508,7 @@
     </row>
     <row r="9" spans="2:135">
       <c r="B9" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="9">
         <f>sumif(P6:EE6, E6, P9:EE9)</f>
@@ -43056,7 +43033,7 @@
     </row>
     <row r="10" spans="2:135">
       <c r="B10" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="9">
         <f>sumif(P6:EE6, E6, P10:EE10)</f>
@@ -43581,37 +43558,37 @@
     </row>
     <row r="11" spans="2:135">
       <c r="B11" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:135">
       <c r="B12" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="2:135">
       <c r="B13" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:135">
       <c r="B14" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="2:135">
       <c r="B15" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="2:135">
       <c r="B16" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
